--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43558</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43605</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43719</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40157,7 +40157,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40700,7 +40700,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41114,7 +41114,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41823,7 +41823,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43558</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43605</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43719</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40157,7 +40157,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40700,7 +40700,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41114,7 +41114,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41823,7 +41823,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y680"/>
+  <dimension ref="A1:Y682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43558</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43605</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43719</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40157,7 +40157,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40700,7 +40700,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41114,7 +41114,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41813,7 +41813,7 @@
       </c>
       <c r="R679" s="2" t="inlineStr"/>
     </row>
-    <row r="680">
+    <row r="680" ht="15" customHeight="1">
       <c r="A680" t="inlineStr">
         <is>
           <t>A 40656-2023</t>
@@ -41823,7 +41823,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41874,6 +41874,120 @@
         <v>0</v>
       </c>
       <c r="R680" s="2" t="inlineStr"/>
+    </row>
+    <row r="681" ht="15" customHeight="1">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>A 41466-2023</t>
+        </is>
+      </c>
+      <c r="B681" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C681" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="G681" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="n">
+        <v>0</v>
+      </c>
+      <c r="J681" t="n">
+        <v>0</v>
+      </c>
+      <c r="K681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N681" t="n">
+        <v>0</v>
+      </c>
+      <c r="O681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R681" s="2" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>A 41455-2023</t>
+        </is>
+      </c>
+      <c r="B682" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C682" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>2</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="n">
+        <v>0</v>
+      </c>
+      <c r="J682" t="n">
+        <v>0</v>
+      </c>
+      <c r="K682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N682" t="n">
+        <v>0</v>
+      </c>
+      <c r="O682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R682" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43558</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43605</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43719</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40157,7 +40157,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40700,7 +40700,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41114,7 +41114,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41823,7 +41823,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41942,7 +41942,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43558</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43605</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43719</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40157,7 +40157,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40700,7 +40700,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41114,7 +41114,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41823,7 +41823,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41942,7 +41942,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43558</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43605</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43719</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40157,7 +40157,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40700,7 +40700,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41114,7 +41114,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41823,7 +41823,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41942,7 +41942,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43558</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43605</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>43691</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
         <v>43719</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13669,7 +13669,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14420,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14477,7 +14477,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15456,7 +15456,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20785,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21536,7 +21536,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21593,7 +21593,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21650,7 +21650,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23333,7 +23333,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23390,7 +23390,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27943,7 +27943,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28476,7 +28476,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28942,7 +28942,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28999,7 +28999,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29636,7 +29636,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29693,7 +29693,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32387,7 +32387,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32444,7 +32444,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32672,7 +32672,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32734,7 +32734,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32791,7 +32791,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32848,7 +32848,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32905,7 +32905,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32967,7 +32967,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33024,7 +33024,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33081,7 +33081,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33138,7 +33138,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33366,7 +33366,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33537,7 +33537,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33594,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33708,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33765,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33822,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33884,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33941,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34060,7 +34060,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34117,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34464,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34521,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34635,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36365,7 +36365,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36422,7 +36422,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36479,7 +36479,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37567,7 +37567,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37624,7 +37624,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37795,7 +37795,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37909,7 +37909,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37966,7 +37966,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38023,7 +38023,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38080,7 +38080,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40157,7 +40157,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40214,7 +40214,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40338,7 +40338,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40400,7 +40400,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40524,7 +40524,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40581,7 +40581,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40638,7 +40638,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40700,7 +40700,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40757,7 +40757,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40814,7 +40814,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40871,7 +40871,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40995,7 +40995,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41057,7 +41057,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41114,7 +41114,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41176,7 +41176,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41233,7 +41233,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41295,7 +41295,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41357,7 +41357,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41481,7 +41481,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41538,7 +41538,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41595,7 +41595,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41652,7 +41652,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41709,7 +41709,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41766,7 +41766,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41823,7 +41823,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41885,7 +41885,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41942,7 +41942,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,14 +1181,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 24762-2021</t>
+          <t>A 46891-2019</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44340</v>
+        <v>43719</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,20 +1206,20 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
@@ -1230,15 +1230,111 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>7</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Rynkskinn
+Kådvaxskinn
+Scharlakansvaxskivling
+Tallticka
+Ullticka
+Blomkålssvamp
+Toppvaxskivling</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 46891-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 46891-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 46891-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 46891-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 46891-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 46891-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 24762-2021</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Gul taggsvamp
 Kärrvaxskinn
@@ -1249,87 +1345,87 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 24762-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 24762-2021.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 24762-2021.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 24762-2021.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 24762-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 24762-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 18289-2019</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>43558</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.4</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>4</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Brandtaggsvamp
 Flattoppad klubbsvamp
@@ -1339,87 +1435,87 @@
 Svavelriska</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 18289-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 18289-2019.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 18289-2019.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 18289-2019.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 18289-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 18289-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 26068-2019</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>43605</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>6</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Flockig puderskivling
 Aprikosfingersvamp
@@ -1429,92 +1525,92 @@
 Hasselmus</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 26068-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 26068-2019.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 26068-2019.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 26068-2019.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 26068-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 26068-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 40697-2019</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>43691</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>6</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Gullgröppa
@@ -1524,126 +1620,31 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 40697-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 40697-2019.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 40697-2019.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 40697-2019.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 40697-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 40697-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 46891-2019</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>43719</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Rynkskinn
-Kådvaxskinn
-Scharlakansvaxskivling
-Tallticka
-Ullticka
-Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 46891-2019.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 46891-2019.png")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 46891-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 46891-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 46891-2019.docx")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 46891-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1654,7 +1655,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1749,7 +1750,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1840,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1934,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2028,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2121,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2213,7 +2214,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2302,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2393,7 +2394,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2485,7 +2486,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2572,7 +2573,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2659,7 +2660,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2751,7 +2752,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2838,7 +2839,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2925,7 +2926,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,7 +3013,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3098,7 +3099,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3184,7 +3185,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3271,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3361,7 +3362,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3447,7 +3448,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3533,7 +3534,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3625,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3709,7 +3710,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3799,7 +3800,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3884,7 +3885,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3974,7 +3975,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,7 +4060,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4144,7 +4145,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4234,7 +4235,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4319,7 +4320,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4409,7 +4410,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4494,7 +4495,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4583,7 +4584,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4673,7 +4674,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4758,7 +4759,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4849,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4933,7 +4934,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5018,7 +5019,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5103,7 +5104,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5188,7 +5189,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5273,7 +5274,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5363,7 +5364,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5452,7 +5453,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5542,7 +5543,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5627,7 +5628,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5712,7 +5713,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5802,7 +5803,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5887,7 +5888,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5972,7 +5973,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6057,7 +6058,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6142,7 +6143,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6227,7 +6228,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6312,7 +6313,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6397,7 +6398,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6459,7 +6460,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6516,7 +6517,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6573,7 +6574,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6631,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6692,7 +6693,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6754,7 +6755,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6811,7 +6812,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6868,7 +6869,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6926,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6983,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7039,7 +7040,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7096,7 +7097,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7153,7 +7154,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7210,7 +7211,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7267,7 +7268,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7324,7 +7325,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7381,7 +7382,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7438,7 +7439,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7495,7 +7496,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7552,7 +7553,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7609,7 +7610,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7666,7 +7667,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7723,7 +7724,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7780,7 +7781,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7837,7 +7838,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7894,7 +7895,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7951,7 +7952,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8008,7 +8009,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8065,7 +8066,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8122,7 +8123,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8179,7 +8180,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8236,7 +8237,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8293,7 +8294,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8350,7 +8351,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8407,7 +8408,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8464,7 +8465,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8521,7 +8522,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8578,7 +8579,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8635,7 +8636,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8692,7 +8693,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8749,7 +8750,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8806,7 +8807,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8863,7 +8864,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8920,7 +8921,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8977,7 +8978,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9034,7 +9035,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9091,7 +9092,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9148,7 +9149,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9210,7 +9211,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9272,7 +9273,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9329,7 +9330,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9386,7 +9387,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9443,7 +9444,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9505,7 +9506,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9567,7 +9568,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9624,7 +9625,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9681,7 +9682,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9738,7 +9739,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9795,7 +9796,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9852,7 +9853,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9909,7 +9910,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9966,7 +9967,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10023,7 +10024,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10080,7 +10081,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10142,7 +10143,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10204,7 +10205,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10266,7 +10267,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10328,7 +10329,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10385,7 +10386,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10442,7 +10443,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10499,7 +10500,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10556,7 +10557,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10613,7 +10614,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10670,7 +10671,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10727,7 +10728,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10784,7 +10785,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10841,7 +10842,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10898,7 +10899,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10955,7 +10956,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11012,7 +11013,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11069,7 +11070,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11126,7 +11127,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11183,7 +11184,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11240,7 +11241,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11297,7 +11298,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11354,7 +11355,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11411,7 +11412,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11468,7 +11469,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11525,7 +11526,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11582,7 +11583,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11639,7 +11640,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11696,7 +11697,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11753,7 +11754,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11810,7 +11811,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11867,7 +11868,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11924,7 +11925,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11981,7 +11982,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12038,7 +12039,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12095,7 +12096,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12152,7 +12153,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12209,7 +12210,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12266,7 +12267,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12323,7 +12324,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12380,7 +12381,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12437,7 +12438,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12494,7 +12495,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12551,7 +12552,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12608,7 +12609,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12665,7 +12666,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12722,7 +12723,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12779,7 +12780,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12836,7 +12837,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12894,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12950,7 +12951,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13007,7 +13008,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13064,7 +13065,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13121,7 +13122,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13178,7 +13179,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13235,7 +13236,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13292,7 +13293,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13349,7 +13350,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13426,7 +13427,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13483,7 +13484,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13545,7 +13546,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13607,7 +13608,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13669,7 +13670,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13726,7 +13727,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13788,7 +13789,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13845,7 +13846,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13902,7 +13903,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13964,7 +13965,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14021,7 +14022,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14078,7 +14079,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14135,7 +14136,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14192,7 +14193,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14249,7 +14250,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14306,7 +14307,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14363,7 +14364,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14420,7 +14421,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14477,7 +14478,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14534,7 +14535,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14591,7 +14592,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14648,7 +14649,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14706,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14763,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14819,7 +14820,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14876,7 +14877,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14933,7 +14934,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14990,7 +14991,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15047,7 +15048,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15105,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15162,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15219,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15281,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15343,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15399,7 +15400,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15456,7 +15457,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15518,7 +15519,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15580,7 +15581,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15637,7 +15638,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15699,7 +15700,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15756,7 +15757,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15813,7 +15814,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15870,7 +15871,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15928,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15989,7 +15990,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16051,7 +16052,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16108,7 +16109,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16165,7 +16166,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16222,7 +16223,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16280,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16342,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16398,7 +16399,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16455,7 +16456,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16512,7 +16513,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16569,7 +16570,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16626,7 +16627,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16683,7 +16684,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16740,7 +16741,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16797,7 +16798,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16854,7 +16855,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16916,7 +16917,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16973,7 +16974,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17035,7 +17036,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17092,7 +17093,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17149,7 +17150,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17206,7 +17207,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17264,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17320,7 +17321,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17377,7 +17378,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17439,7 +17440,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17502,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17558,7 +17559,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17615,7 +17616,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17672,7 +17673,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17729,7 +17730,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17786,7 +17787,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17843,7 +17844,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17900,7 +17901,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17957,7 +17958,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18014,7 +18015,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18071,7 +18072,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18128,7 +18129,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18185,7 +18186,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18242,7 +18243,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18299,7 +18300,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18356,7 +18357,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18413,7 +18414,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18470,7 +18471,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18527,7 +18528,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18584,7 +18585,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18641,7 +18642,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18698,7 +18699,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18755,7 +18756,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18812,7 +18813,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18869,7 +18870,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18931,7 +18932,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18988,7 +18989,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19045,7 +19046,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19102,7 +19103,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19159,7 +19160,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19216,7 +19217,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19273,7 +19274,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19330,7 +19331,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19387,7 +19388,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19444,7 +19445,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19501,7 +19502,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19558,7 +19559,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19615,7 +19616,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19672,7 +19673,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19734,7 +19735,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19791,7 +19792,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19848,7 +19849,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19910,7 +19911,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19972,7 +19973,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20029,7 +20030,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20086,7 +20087,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20143,7 +20144,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20205,7 +20206,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20262,7 +20263,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20319,7 +20320,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20376,7 +20377,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20438,7 +20439,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20495,7 +20496,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20552,7 +20553,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20609,7 +20610,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20666,7 +20667,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20728,7 +20729,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20785,7 +20786,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20842,7 +20843,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20899,7 +20900,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20956,7 +20957,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21013,7 +21014,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21070,7 +21071,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21127,7 +21128,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21184,7 +21185,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21241,7 +21242,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21298,7 +21299,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21355,7 +21356,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21417,7 +21418,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21479,7 +21480,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21536,7 +21537,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21593,7 +21594,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21650,7 +21651,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21707,7 +21708,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21764,7 +21765,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21821,7 +21822,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21878,7 +21879,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21935,7 +21936,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21992,7 +21993,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22049,7 +22050,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22106,7 +22107,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22163,7 +22164,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22220,7 +22221,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22277,7 +22278,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22334,7 +22335,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22391,7 +22392,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22448,7 +22449,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22505,7 +22506,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22562,7 +22563,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22624,7 +22625,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22686,7 +22687,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22748,7 +22749,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22810,7 +22811,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22867,7 +22868,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22924,7 +22925,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22981,7 +22982,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23038,7 +23039,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23095,7 +23096,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23157,7 +23158,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23219,7 +23220,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23276,7 +23277,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23333,7 +23334,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23390,7 +23391,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23447,7 +23448,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23504,7 +23505,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23561,7 +23562,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23618,7 +23619,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23675,7 +23676,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23737,7 +23738,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23794,7 +23795,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23856,7 +23857,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23913,7 +23914,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23970,7 +23971,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24027,7 +24028,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24084,7 +24085,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24141,7 +24142,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24198,7 +24199,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24260,7 +24261,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24317,7 +24318,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24374,7 +24375,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24431,7 +24432,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24488,7 +24489,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24545,7 +24546,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24602,7 +24603,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24659,7 +24660,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24716,7 +24717,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24773,7 +24774,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24830,7 +24831,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24892,7 +24893,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24949,7 +24950,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25006,7 +25007,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25068,7 +25069,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25125,7 +25126,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25182,7 +25183,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25239,7 +25240,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25301,7 +25302,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25363,7 +25364,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25425,7 +25426,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25482,7 +25483,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25539,7 +25540,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25596,7 +25597,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25653,7 +25654,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25710,7 +25711,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25767,7 +25768,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25824,7 +25825,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25881,7 +25882,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25938,7 +25939,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25995,7 +25996,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26052,7 +26053,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26109,7 +26110,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26166,7 +26167,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26223,7 +26224,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26280,7 +26281,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26337,7 +26338,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26394,7 +26395,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26451,7 +26452,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26508,7 +26509,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26565,7 +26566,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26622,7 +26623,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26679,7 +26680,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26736,7 +26737,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26793,7 +26794,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26850,7 +26851,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26907,7 +26908,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26964,7 +26965,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27021,7 +27022,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27078,7 +27079,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27135,7 +27136,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27197,7 +27198,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27254,7 +27255,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27311,7 +27312,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27368,7 +27369,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27425,7 +27426,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27482,7 +27483,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27539,7 +27540,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27596,7 +27597,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27653,7 +27654,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27710,7 +27711,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27772,7 +27773,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27829,7 +27830,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27886,7 +27887,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27943,7 +27944,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28005,7 +28006,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28062,7 +28063,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28119,7 +28120,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28176,7 +28177,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28233,7 +28234,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28295,7 +28296,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28352,7 +28353,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28414,7 +28415,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28476,7 +28477,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28538,7 +28539,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28595,7 +28596,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28652,7 +28653,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28714,7 +28715,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28771,7 +28772,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28828,7 +28829,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28885,7 +28886,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28942,7 +28943,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28999,7 +29000,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29056,7 +29057,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29113,7 +29114,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29175,7 +29176,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29232,7 +29233,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29289,7 +29290,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29346,7 +29347,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29403,7 +29404,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29460,7 +29461,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29517,7 +29518,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29579,7 +29580,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29636,7 +29637,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29693,7 +29694,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29750,7 +29751,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29807,7 +29808,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29864,7 +29865,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29921,7 +29922,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29978,7 +29979,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30040,7 +30041,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30097,7 +30098,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30159,7 +30160,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30216,7 +30217,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30273,7 +30274,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30330,7 +30331,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30387,7 +30388,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30444,7 +30445,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30501,7 +30502,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30558,7 +30559,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30615,7 +30616,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30672,7 +30673,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30729,7 +30730,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30786,7 +30787,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30843,7 +30844,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30900,7 +30901,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30957,7 +30958,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31014,7 +31015,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31071,7 +31072,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31128,7 +31129,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31185,7 +31186,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31242,7 +31243,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31299,7 +31300,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31356,7 +31357,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31413,7 +31414,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31470,7 +31471,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31527,7 +31528,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31584,7 +31585,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31641,7 +31642,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31698,7 +31699,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31755,7 +31756,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31812,7 +31813,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31869,7 +31870,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31926,7 +31927,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31983,7 +31984,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32040,7 +32041,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32097,7 +32098,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32154,7 +32155,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32216,7 +32217,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32273,7 +32274,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32330,7 +32331,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32387,7 +32388,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32444,7 +32445,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32501,7 +32502,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32558,7 +32559,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32615,7 +32616,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32672,7 +32673,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32734,7 +32735,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32791,7 +32792,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32848,7 +32849,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32905,7 +32906,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32967,7 +32968,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33024,7 +33025,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33081,7 +33082,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33138,7 +33139,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33195,7 +33196,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33252,7 +33253,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33309,7 +33310,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33366,7 +33367,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33423,7 +33424,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33480,7 +33481,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33537,7 +33538,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33594,7 +33595,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33651,7 +33652,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33708,7 +33709,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33765,7 +33766,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33822,7 +33823,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33884,7 +33885,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33941,7 +33942,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34003,7 +34004,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34060,7 +34061,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34117,7 +34118,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34174,7 +34175,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34231,7 +34232,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34288,7 +34289,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34345,7 +34346,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34402,7 +34403,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34464,7 +34465,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34521,7 +34522,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34578,7 +34579,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34635,7 +34636,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34692,7 +34693,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34749,7 +34750,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34811,7 +34812,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34868,7 +34869,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34925,7 +34926,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34987,7 +34988,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35044,7 +35045,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35101,7 +35102,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35158,7 +35159,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35220,7 +35221,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35277,7 +35278,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35334,7 +35335,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35391,7 +35392,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35448,7 +35449,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35505,7 +35506,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35562,7 +35563,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35619,7 +35620,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35676,7 +35677,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35733,7 +35734,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35790,7 +35791,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35847,7 +35848,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35904,7 +35905,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35961,7 +35962,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36018,7 +36019,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36075,7 +36076,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36132,7 +36133,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36189,7 +36190,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36246,7 +36247,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36303,7 +36304,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36365,7 +36366,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36422,7 +36423,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36479,7 +36480,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36536,7 +36537,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36593,7 +36594,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36650,7 +36651,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36707,7 +36708,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36764,7 +36765,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36821,7 +36822,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36878,7 +36879,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36935,7 +36936,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36992,7 +36993,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37049,7 +37050,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37106,7 +37107,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37163,7 +37164,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37220,7 +37221,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37277,7 +37278,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37334,7 +37335,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37391,7 +37392,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37448,7 +37449,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37505,7 +37506,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37567,7 +37568,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37624,7 +37625,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37681,7 +37682,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37738,7 +37739,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37795,7 +37796,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37852,7 +37853,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37909,7 +37910,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37966,7 +37967,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38023,7 +38024,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38080,7 +38081,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38137,7 +38138,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38194,7 +38195,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38251,7 +38252,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38308,7 +38309,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38365,7 +38366,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38422,7 +38423,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38479,7 +38480,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38536,7 +38537,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38593,7 +38594,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38650,7 +38651,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38707,7 +38708,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38764,7 +38765,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38821,7 +38822,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38878,7 +38879,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38935,7 +38936,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38992,7 +38993,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39049,7 +39050,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39106,7 +39107,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39163,7 +39164,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39225,7 +39226,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39287,7 +39288,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39349,7 +39350,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39406,7 +39407,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39463,7 +39464,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39520,7 +39521,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39577,7 +39578,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39634,7 +39635,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39691,7 +39692,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39748,7 +39749,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39805,7 +39806,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39862,7 +39863,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39919,7 +39920,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39976,7 +39977,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40033,7 +40034,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40095,7 +40096,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40157,7 +40158,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40214,7 +40215,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40276,7 +40277,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40338,7 +40339,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40400,7 +40401,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40462,7 +40463,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40524,7 +40525,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40581,7 +40582,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40638,7 +40639,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40700,7 +40701,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40757,7 +40758,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40814,7 +40815,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40871,7 +40872,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40933,7 +40934,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40995,7 +40996,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41057,7 +41058,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41114,7 +41115,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41176,7 +41177,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41233,7 +41234,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41295,7 +41296,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41357,7 +41358,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41419,7 +41420,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41481,7 +41482,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41538,7 +41539,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41595,7 +41596,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41652,7 +41653,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41709,7 +41710,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41766,7 +41767,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41823,7 +41824,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41885,7 +41886,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41942,7 +41943,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43719</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44340</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43605</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43691</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25483,7 +25483,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25540,7 +25540,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25597,7 +25597,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25711,7 +25711,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28353,7 +28353,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30445,7 +30445,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30559,7 +30559,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30616,7 +30616,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31357,7 +31357,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31585,7 +31585,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32098,7 +32098,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32155,7 +32155,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32217,7 +32217,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32274,7 +32274,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35449,7 +35449,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35563,7 +35563,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35677,7 +35677,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35905,7 +35905,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38366,7 +38366,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38423,7 +38423,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38480,7 +38480,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38651,7 +38651,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38708,7 +38708,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38822,7 +38822,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39288,7 +39288,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40096,7 +40096,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40158,7 +40158,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40215,7 +40215,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40582,7 +40582,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41177,7 +41177,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41296,7 +41296,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41358,7 +41358,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41482,7 +41482,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41596,7 +41596,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41653,7 +41653,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41710,7 +41710,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41767,7 +41767,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41824,7 +41824,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41886,7 +41886,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41943,7 +41943,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,31 +659,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 21670-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 21670-2022.xlsx", "A 21670-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 21670-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 21670-2022.png", "A 21670-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 21670-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 21670-2022.png", "A 21670-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 21670-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 21670-2022.docx", "A 21670-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 21670-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 21670-2022.docx", "A 21670-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 21670-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 21670-2022.docx", "A 21670-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 21670-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 21670-2022.docx", "A 21670-2022")</f>
         <v/>
       </c>
     </row>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,27 +765,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 66985-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 66985-2021.xlsx", "A 66985-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 66985-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 66985-2021.png", "A 66985-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 66985-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 66985-2021.docx", "A 66985-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 66985-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 66985-2021.docx", "A 66985-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 66985-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 66985-2021.docx", "A 66985-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 66985-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 66985-2021.docx", "A 66985-2021")</f>
         <v/>
       </c>
     </row>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,27 +864,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 30728-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 30728-2021.xlsx", "A 30728-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 30728-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 30728-2021.png", "A 30728-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 30728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 30728-2021.docx", "A 30728-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 30728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 30728-2021.docx", "A 30728-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 30728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 30728-2021.docx", "A 30728-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 30728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 30728-2021.docx", "A 30728-2021")</f>
         <v/>
       </c>
     </row>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,27 +957,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 34205-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 34205-2021.xlsx", "A 34205-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 34205-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 34205-2021.png", "A 34205-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 34205-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 34205-2021.docx", "A 34205-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 34205-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 34205-2021.docx", "A 34205-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 34205-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 34205-2021.docx", "A 34205-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 34205-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 34205-2021.docx", "A 34205-2021")</f>
         <v/>
       </c>
     </row>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1054,31 +1054,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 40725-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 40725-2019.xlsx", "A 40725-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 40725-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 40725-2019.png", "A 40725-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 40725-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 40725-2019.png", "A 40725-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 40725-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 40725-2019.docx", "A 40725-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 40725-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 40725-2019.docx", "A 40725-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 40725-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 40725-2019.docx", "A 40725-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 40725-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 40725-2019.docx", "A 40725-2019")</f>
         <v/>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,27 +1154,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15438-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15438-2019.xlsx", "A 15438-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15438-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15438-2019.png", "A 15438-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15438-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15438-2019.docx", "A 15438-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15438-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15438-2019.docx", "A 15438-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15438-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15438-2019.docx", "A 15438-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15438-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15438-2019.docx", "A 15438-2019")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>43719</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1250,27 +1250,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 46891-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 46891-2019.xlsx", "A 46891-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 46891-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 46891-2019.png", "A 46891-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 46891-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 46891-2019.docx", "A 46891-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 46891-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 46891-2019.docx", "A 46891-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 46891-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 46891-2019.docx", "A 46891-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 46891-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 46891-2019.docx", "A 46891-2019")</f>
         <v/>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>44340</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1346,27 +1346,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 24762-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 24762-2021.xlsx", "A 24762-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 24762-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 24762-2021.png", "A 24762-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 24762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 24762-2021.docx", "A 24762-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 24762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 24762-2021.docx", "A 24762-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 24762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 24762-2021.docx", "A 24762-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 24762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 24762-2021.docx", "A 24762-2021")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>43558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1436,27 +1436,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 18289-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 18289-2019.xlsx", "A 18289-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 18289-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 18289-2019.png", "A 18289-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 18289-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 18289-2019.docx", "A 18289-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 18289-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 18289-2019.docx", "A 18289-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 18289-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 18289-2019.docx", "A 18289-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 18289-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 18289-2019.docx", "A 18289-2019")</f>
         <v/>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>43605</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1526,27 +1526,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 26068-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 26068-2019.xlsx", "A 26068-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 26068-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 26068-2019.png", "A 26068-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 26068-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 26068-2019.docx", "A 26068-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 26068-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 26068-2019.docx", "A 26068-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 26068-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 26068-2019.docx", "A 26068-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 26068-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 26068-2019.docx", "A 26068-2019")</f>
         <v/>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
         <v>43691</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1621,27 +1621,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 40697-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 40697-2019.xlsx", "A 40697-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 40697-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 40697-2019.png", "A 40697-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 40697-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 40697-2019.docx", "A 40697-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 40697-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 40697-2019.docx", "A 40697-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 40697-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 40697-2019.docx", "A 40697-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 40697-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 40697-2019.docx", "A 40697-2019")</f>
         <v/>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,27 +1716,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 63813-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 63813-2019.xlsx", "A 63813-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 63813-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 63813-2019.png", "A 63813-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 63813-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 63813-2019.docx", "A 63813-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 63813-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 63813-2019.docx", "A 63813-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 63813-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 63813-2019.docx", "A 63813-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 63813-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 63813-2019.docx", "A 63813-2019")</f>
         <v/>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1806,27 +1806,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 13166-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 13166-2021.xlsx", "A 13166-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 13166-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 13166-2021.png", "A 13166-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 13166-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 13166-2021.docx", "A 13166-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 13166-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 13166-2021.docx", "A 13166-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 13166-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 13166-2021.docx", "A 13166-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 13166-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 13166-2021.docx", "A 13166-2021")</f>
         <v/>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1900,27 +1900,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 44139-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 44139-2018.xlsx", "A 44139-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 44139-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 44139-2018.png", "A 44139-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 44139-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 44139-2018.docx", "A 44139-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 44139-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 44139-2018.docx", "A 44139-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 44139-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 44139-2018.docx", "A 44139-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 44139-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 44139-2018.docx", "A 44139-2018")</f>
         <v/>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,27 +1994,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 20563-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 20563-2022.xlsx", "A 20563-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 20563-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 20563-2022.png", "A 20563-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 20563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 20563-2022.docx", "A 20563-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 20563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 20563-2022.docx", "A 20563-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 20563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 20563-2022.docx", "A 20563-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 20563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 20563-2022.docx", "A 20563-2022")</f>
         <v/>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,31 +2083,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15758-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15758-2023.xlsx", "A 15758-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15758-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15758-2023.png", "A 15758-2023")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 15758-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 15758-2023.png", "A 15758-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15758-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15758-2023.docx", "A 15758-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15758-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15758-2023.docx", "A 15758-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15758-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15758-2023.docx", "A 15758-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15758-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15758-2023.docx", "A 15758-2023")</f>
         <v/>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,27 +2180,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 32593-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 32593-2019.xlsx", "A 32593-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 32593-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 32593-2019.png", "A 32593-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 32593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 32593-2019.docx", "A 32593-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 32593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 32593-2019.docx", "A 32593-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 32593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 32593-2019.docx", "A 32593-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 32593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 32593-2019.docx", "A 32593-2019")</f>
         <v/>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,27 +2268,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15035-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15035-2021.xlsx", "A 15035-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15035-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15035-2021.png", "A 15035-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15035-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15035-2021.docx", "A 15035-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15035-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15035-2021.docx", "A 15035-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15035-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15035-2021.docx", "A 15035-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15035-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15035-2021.docx", "A 15035-2021")</f>
         <v/>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,27 +2360,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 35545-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 35545-2019.xlsx", "A 35545-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 35545-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 35545-2019.png", "A 35545-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 35545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 35545-2019.docx", "A 35545-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 35545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 35545-2019.docx", "A 35545-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 35545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 35545-2019.docx", "A 35545-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 35545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 35545-2019.docx", "A 35545-2019")</f>
         <v/>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,27 +2452,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 19244-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 19244-2020.xlsx", "A 19244-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 19244-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 19244-2020.png", "A 19244-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 19244-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 19244-2020.docx", "A 19244-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 19244-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 19244-2020.docx", "A 19244-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 19244-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 19244-2020.docx", "A 19244-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 19244-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 19244-2020.docx", "A 19244-2020")</f>
         <v/>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2539,27 +2539,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 20838-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 20838-2021.xlsx", "A 20838-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 20838-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 20838-2021.png", "A 20838-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 20838-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 20838-2021.docx", "A 20838-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 20838-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 20838-2021.docx", "A 20838-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 20838-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 20838-2021.docx", "A 20838-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 20838-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 20838-2021.docx", "A 20838-2021")</f>
         <v/>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2626,27 +2626,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 24677-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 24677-2022.xlsx", "A 24677-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 24677-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 24677-2022.png", "A 24677-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 24677-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 24677-2022.docx", "A 24677-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 24677-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 24677-2022.docx", "A 24677-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 24677-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 24677-2022.docx", "A 24677-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 24677-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 24677-2022.docx", "A 24677-2022")</f>
         <v/>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2718,27 +2718,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 29487-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 29487-2022.xlsx", "A 29487-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 29487-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 29487-2022.png", "A 29487-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 29487-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 29487-2022.docx", "A 29487-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 29487-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 29487-2022.docx", "A 29487-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 29487-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 29487-2022.docx", "A 29487-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 29487-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 29487-2022.docx", "A 29487-2022")</f>
         <v/>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,27 +2805,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 32782-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 32782-2022.xlsx", "A 32782-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 32782-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 32782-2022.png", "A 32782-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 32782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 32782-2022.docx", "A 32782-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 32782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 32782-2022.docx", "A 32782-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 32782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 32782-2022.docx", "A 32782-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 32782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 32782-2022.docx", "A 32782-2022")</f>
         <v/>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2892,27 +2892,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 3758-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 3758-2023.xlsx", "A 3758-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 3758-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 3758-2023.png", "A 3758-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 3758-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 3758-2023.docx", "A 3758-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 3758-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 3758-2023.docx", "A 3758-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 3758-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 3758-2023.docx", "A 3758-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 3758-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 3758-2023.docx", "A 3758-2023")</f>
         <v/>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2979,27 +2979,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 14408-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 14408-2023.xlsx", "A 14408-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 14408-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 14408-2023.png", "A 14408-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 14408-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 14408-2023.docx", "A 14408-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 14408-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 14408-2023.docx", "A 14408-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 14408-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 14408-2023.docx", "A 14408-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 14408-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 14408-2023.docx", "A 14408-2023")</f>
         <v/>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3065,27 +3065,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 7012-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 7012-2019.xlsx", "A 7012-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 7012-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 7012-2019.png", "A 7012-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 7012-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 7012-2019.docx", "A 7012-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 7012-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 7012-2019.docx", "A 7012-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 7012-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 7012-2019.docx", "A 7012-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 7012-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 7012-2019.docx", "A 7012-2019")</f>
         <v/>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3151,27 +3151,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 11588-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 11588-2019.xlsx", "A 11588-2019")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 11588-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 11588-2019.png", "A 11588-2019")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 11588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 11588-2019.docx", "A 11588-2019")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 11588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 11588-2019.docx", "A 11588-2019")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 11588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 11588-2019.docx", "A 11588-2019")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 11588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 11588-2019.docx", "A 11588-2019")</f>
         <v/>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3237,27 +3237,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 20603-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 20603-2019.xlsx", "A 20603-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 20603-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 20603-2019.png", "A 20603-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 20603-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 20603-2019.docx", "A 20603-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 20603-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 20603-2019.docx", "A 20603-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 20603-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 20603-2019.docx", "A 20603-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 20603-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 20603-2019.docx", "A 20603-2019")</f>
         <v/>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3328,27 +3328,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 46798-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 46798-2019.xlsx", "A 46798-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 46798-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 46798-2019.png", "A 46798-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 46798-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 46798-2019.docx", "A 46798-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 46798-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 46798-2019.docx", "A 46798-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 46798-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 46798-2019.docx", "A 46798-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 46798-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 46798-2019.docx", "A 46798-2019")</f>
         <v/>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3414,27 +3414,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 2586-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 2586-2021.xlsx", "A 2586-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 2586-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 2586-2021.png", "A 2586-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 2586-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 2586-2021.docx", "A 2586-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 2586-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 2586-2021.docx", "A 2586-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 2586-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 2586-2021.docx", "A 2586-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 2586-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 2586-2021.docx", "A 2586-2021")</f>
         <v/>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3500,27 +3500,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 8267-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 8267-2021.xlsx", "A 8267-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 8267-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 8267-2021.png", "A 8267-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 8267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 8267-2021.docx", "A 8267-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 8267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 8267-2021.docx", "A 8267-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 8267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 8267-2021.docx", "A 8267-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 8267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 8267-2021.docx", "A 8267-2021")</f>
         <v/>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3591,27 +3591,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 29478-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 29478-2022.xlsx", "A 29478-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 29478-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 29478-2022.png", "A 29478-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 29478-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 29478-2022.docx", "A 29478-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 29478-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 29478-2022.docx", "A 29478-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 29478-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 29478-2022.docx", "A 29478-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 29478-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 29478-2022.docx", "A 29478-2022")</f>
         <v/>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3676,27 +3676,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 44445-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 44445-2018.xlsx", "A 44445-2018")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 44445-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 44445-2018.png", "A 44445-2018")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 44445-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 44445-2018.docx", "A 44445-2018")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 44445-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 44445-2018.docx", "A 44445-2018")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 44445-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 44445-2018.docx", "A 44445-2018")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 44445-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 44445-2018.docx", "A 44445-2018")</f>
         <v/>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3766,27 +3766,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 71080-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 71080-2018.xlsx", "A 71080-2018")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 71080-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 71080-2018.png", "A 71080-2018")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 71080-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 71080-2018.docx", "A 71080-2018")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 71080-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 71080-2018.docx", "A 71080-2018")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 71080-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 71080-2018.docx", "A 71080-2018")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 71080-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 71080-2018.docx", "A 71080-2018")</f>
         <v/>
       </c>
     </row>
@@ -3800,7 +3800,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3851,27 +3851,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15351-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15351-2019.xlsx", "A 15351-2019")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15351-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15351-2019.png", "A 15351-2019")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15351-2019.docx", "A 15351-2019")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15351-2019.docx", "A 15351-2019")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15351-2019.docx", "A 15351-2019")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15351-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15351-2019.docx", "A 15351-2019")</f>
         <v/>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3941,27 +3941,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 33605-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 33605-2019.xlsx", "A 33605-2019")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 33605-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 33605-2019.png", "A 33605-2019")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 33605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 33605-2019.docx", "A 33605-2019")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 33605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 33605-2019.docx", "A 33605-2019")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 33605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 33605-2019.docx", "A 33605-2019")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 33605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 33605-2019.docx", "A 33605-2019")</f>
         <v/>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4026,27 +4026,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 1512-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 1512-2020.xlsx", "A 1512-2020")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 1512-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 1512-2020.png", "A 1512-2020")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 1512-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 1512-2020.docx", "A 1512-2020")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 1512-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 1512-2020.docx", "A 1512-2020")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 1512-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 1512-2020.docx", "A 1512-2020")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 1512-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 1512-2020.docx", "A 1512-2020")</f>
         <v/>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4111,27 +4111,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 2697-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 2697-2020.xlsx", "A 2697-2020")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 2697-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 2697-2020.png", "A 2697-2020")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 2697-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 2697-2020.docx", "A 2697-2020")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 2697-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 2697-2020.docx", "A 2697-2020")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 2697-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 2697-2020.docx", "A 2697-2020")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 2697-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 2697-2020.docx", "A 2697-2020")</f>
         <v/>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4201,27 +4201,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 4761-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 4761-2020.xlsx", "A 4761-2020")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 4761-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 4761-2020.png", "A 4761-2020")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 4761-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 4761-2020.docx", "A 4761-2020")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 4761-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 4761-2020.docx", "A 4761-2020")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 4761-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 4761-2020.docx", "A 4761-2020")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 4761-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 4761-2020.docx", "A 4761-2020")</f>
         <v/>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4286,27 +4286,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 13831-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 13831-2020.xlsx", "A 13831-2020")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 13831-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 13831-2020.png", "A 13831-2020")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 13831-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 13831-2020.docx", "A 13831-2020")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 13831-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 13831-2020.docx", "A 13831-2020")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 13831-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 13831-2020.docx", "A 13831-2020")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 13831-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 13831-2020.docx", "A 13831-2020")</f>
         <v/>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4376,27 +4376,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 25192-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 25192-2020.xlsx", "A 25192-2020")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 25192-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 25192-2020.png", "A 25192-2020")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 25192-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 25192-2020.docx", "A 25192-2020")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 25192-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 25192-2020.docx", "A 25192-2020")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 25192-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 25192-2020.docx", "A 25192-2020")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 25192-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 25192-2020.docx", "A 25192-2020")</f>
         <v/>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4461,27 +4461,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 26426-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 26426-2020.xlsx", "A 26426-2020")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 26426-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 26426-2020.png", "A 26426-2020")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 26426-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 26426-2020.docx", "A 26426-2020")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 26426-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 26426-2020.docx", "A 26426-2020")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 26426-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 26426-2020.docx", "A 26426-2020")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 26426-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 26426-2020.docx", "A 26426-2020")</f>
         <v/>
       </c>
     </row>
@@ -4495,7 +4495,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4546,31 +4546,31 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 28103-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 28103-2020.xlsx", "A 28103-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 28103-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 28103-2020.png", "A 28103-2020")</f>
         <v/>
       </c>
       <c r="U45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 28103-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 28103-2020.png", "A 28103-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 28103-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 28103-2020.docx", "A 28103-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 28103-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 28103-2020.docx", "A 28103-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 28103-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 28103-2020.docx", "A 28103-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 28103-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 28103-2020.docx", "A 28103-2020")</f>
         <v/>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4640,27 +4640,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 28710-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 28710-2020.xlsx", "A 28710-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 28710-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 28710-2020.png", "A 28710-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 28710-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 28710-2020.docx", "A 28710-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 28710-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 28710-2020.docx", "A 28710-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 28710-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 28710-2020.docx", "A 28710-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 28710-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 28710-2020.docx", "A 28710-2020")</f>
         <v/>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4725,27 +4725,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 29454-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 29454-2020.xlsx", "A 29454-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 29454-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 29454-2020.png", "A 29454-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 29454-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 29454-2020.docx", "A 29454-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 29454-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 29454-2020.docx", "A 29454-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 29454-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 29454-2020.docx", "A 29454-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 29454-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 29454-2020.docx", "A 29454-2020")</f>
         <v/>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4815,27 +4815,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 58966-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 58966-2020.xlsx", "A 58966-2020")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 58966-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 58966-2020.png", "A 58966-2020")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 58966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 58966-2020.docx", "A 58966-2020")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 58966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 58966-2020.docx", "A 58966-2020")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 58966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 58966-2020.docx", "A 58966-2020")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 58966-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 58966-2020.docx", "A 58966-2020")</f>
         <v/>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4900,27 +4900,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 4014-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 4014-2021.xlsx", "A 4014-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 4014-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 4014-2021.png", "A 4014-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 4014-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 4014-2021.docx", "A 4014-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 4014-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 4014-2021.docx", "A 4014-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 4014-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 4014-2021.docx", "A 4014-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 4014-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 4014-2021.docx", "A 4014-2021")</f>
         <v/>
       </c>
     </row>
@@ -4934,7 +4934,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4985,27 +4985,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 6926-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 6926-2021.xlsx", "A 6926-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 6926-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 6926-2021.png", "A 6926-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 6926-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 6926-2021.docx", "A 6926-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 6926-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 6926-2021.docx", "A 6926-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 6926-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 6926-2021.docx", "A 6926-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 6926-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 6926-2021.docx", "A 6926-2021")</f>
         <v/>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5070,27 +5070,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 8256-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 8256-2021.xlsx", "A 8256-2021")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 8256-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 8256-2021.png", "A 8256-2021")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 8256-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 8256-2021.docx", "A 8256-2021")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 8256-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 8256-2021.docx", "A 8256-2021")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 8256-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 8256-2021.docx", "A 8256-2021")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 8256-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 8256-2021.docx", "A 8256-2021")</f>
         <v/>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5155,27 +5155,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 8577-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 8577-2021.xlsx", "A 8577-2021")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 8577-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 8577-2021.png", "A 8577-2021")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 8577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 8577-2021.docx", "A 8577-2021")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 8577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 8577-2021.docx", "A 8577-2021")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 8577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 8577-2021.docx", "A 8577-2021")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 8577-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 8577-2021.docx", "A 8577-2021")</f>
         <v/>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5240,27 +5240,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15621-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15621-2021.xlsx", "A 15621-2021")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15621-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15621-2021.png", "A 15621-2021")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15621-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15621-2021.docx", "A 15621-2021")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15621-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15621-2021.docx", "A 15621-2021")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15621-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15621-2021.docx", "A 15621-2021")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15621-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15621-2021.docx", "A 15621-2021")</f>
         <v/>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5330,27 +5330,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 32595-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 32595-2021.xlsx", "A 32595-2021")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 32595-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 32595-2021.png", "A 32595-2021")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 32595-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 32595-2021.docx", "A 32595-2021")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 32595-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 32595-2021.docx", "A 32595-2021")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 32595-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 32595-2021.docx", "A 32595-2021")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 32595-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 32595-2021.docx", "A 32595-2021")</f>
         <v/>
       </c>
     </row>
@@ -5364,7 +5364,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5415,31 +5415,31 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 44389-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 44389-2021.xlsx", "A 44389-2021")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 44389-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 44389-2021.png", "A 44389-2021")</f>
         <v/>
       </c>
       <c r="U55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 44389-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 44389-2021.png", "A 44389-2021")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 44389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 44389-2021.docx", "A 44389-2021")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 44389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 44389-2021.docx", "A 44389-2021")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 44389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 44389-2021.docx", "A 44389-2021")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 44389-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 44389-2021.docx", "A 44389-2021")</f>
         <v/>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5509,27 +5509,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 57108-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 57108-2021.xlsx", "A 57108-2021")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 57108-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 57108-2021.png", "A 57108-2021")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 57108-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 57108-2021.docx", "A 57108-2021")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 57108-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 57108-2021.docx", "A 57108-2021")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 57108-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 57108-2021.docx", "A 57108-2021")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 57108-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 57108-2021.docx", "A 57108-2021")</f>
         <v/>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5594,27 +5594,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 4943-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 4943-2022.xlsx", "A 4943-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 4943-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 4943-2022.png", "A 4943-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 4943-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 4943-2022.docx", "A 4943-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 4943-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 4943-2022.docx", "A 4943-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 4943-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 4943-2022.docx", "A 4943-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 4943-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 4943-2022.docx", "A 4943-2022")</f>
         <v/>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5679,27 +5679,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 26890-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 26890-2022.xlsx", "A 26890-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 26890-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 26890-2022.png", "A 26890-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 26890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 26890-2022.docx", "A 26890-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 26890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 26890-2022.docx", "A 26890-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 26890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 26890-2022.docx", "A 26890-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 26890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 26890-2022.docx", "A 26890-2022")</f>
         <v/>
       </c>
     </row>
@@ -5713,7 +5713,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5769,27 +5769,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 29704-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 29704-2022.xlsx", "A 29704-2022")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 29704-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 29704-2022.png", "A 29704-2022")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 29704-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 29704-2022.docx", "A 29704-2022")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 29704-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 29704-2022.docx", "A 29704-2022")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 29704-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 29704-2022.docx", "A 29704-2022")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 29704-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 29704-2022.docx", "A 29704-2022")</f>
         <v/>
       </c>
     </row>
@@ -5803,7 +5803,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5854,27 +5854,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 44361-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 44361-2022.xlsx", "A 44361-2022")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 44361-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 44361-2022.png", "A 44361-2022")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 44361-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 44361-2022.docx", "A 44361-2022")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 44361-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 44361-2022.docx", "A 44361-2022")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 44361-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 44361-2022.docx", "A 44361-2022")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 44361-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 44361-2022.docx", "A 44361-2022")</f>
         <v/>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5939,27 +5939,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 5097-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 5097-2023.xlsx", "A 5097-2023")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 5097-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 5097-2023.png", "A 5097-2023")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 5097-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 5097-2023.docx", "A 5097-2023")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 5097-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 5097-2023.docx", "A 5097-2023")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 5097-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 5097-2023.docx", "A 5097-2023")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 5097-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 5097-2023.docx", "A 5097-2023")</f>
         <v/>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6024,27 +6024,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 19939-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 19939-2023.xlsx", "A 19939-2023")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 19939-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 19939-2023.png", "A 19939-2023")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 19939-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 19939-2023.docx", "A 19939-2023")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 19939-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 19939-2023.docx", "A 19939-2023")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 19939-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 19939-2023.docx", "A 19939-2023")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 19939-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 19939-2023.docx", "A 19939-2023")</f>
         <v/>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6109,27 +6109,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 20247-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 20247-2023.xlsx", "A 20247-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 20247-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 20247-2023.png", "A 20247-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 20247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 20247-2023.docx", "A 20247-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 20247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 20247-2023.docx", "A 20247-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 20247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 20247-2023.docx", "A 20247-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 20247-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 20247-2023.docx", "A 20247-2023")</f>
         <v/>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6194,27 +6194,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 22848-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 22848-2023.xlsx", "A 22848-2023")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 22848-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 22848-2023.png", "A 22848-2023")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 22848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 22848-2023.docx", "A 22848-2023")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 22848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 22848-2023.docx", "A 22848-2023")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 22848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 22848-2023.docx", "A 22848-2023")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 22848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 22848-2023.docx", "A 22848-2023")</f>
         <v/>
       </c>
     </row>
@@ -6228,7 +6228,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6279,27 +6279,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 23608-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 23608-2023.xlsx", "A 23608-2023")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 23608-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 23608-2023.png", "A 23608-2023")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 23608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 23608-2023.docx", "A 23608-2023")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 23608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 23608-2023.docx", "A 23608-2023")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 23608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 23608-2023.docx", "A 23608-2023")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 23608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 23608-2023.docx", "A 23608-2023")</f>
         <v/>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6364,27 +6364,27 @@
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 32105-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 32105-2023.xlsx", "A 32105-2023")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 32105-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 32105-2023.png", "A 32105-2023")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 32105-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 32105-2023.docx", "A 32105-2023")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 32105-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 32105-2023.docx", "A 32105-2023")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 32105-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 32105-2023.docx", "A 32105-2023")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 32105-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 32105-2023.docx", "A 32105-2023")</f>
         <v/>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13397,23 +13397,23 @@
       </c>
       <c r="R188" s="2" t="inlineStr"/>
       <c r="U188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 25186-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 25186-2019.png", "A 25186-2019")</f>
         <v/>
       </c>
       <c r="V188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 25186-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 25186-2019.docx", "A 25186-2019")</f>
         <v/>
       </c>
       <c r="W188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 25186-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 25186-2019.docx", "A 25186-2019")</f>
         <v/>
       </c>
       <c r="X188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 25186-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 25186-2019.docx", "A 25186-2019")</f>
         <v/>
       </c>
       <c r="Y188">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 25186-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 25186-2019.docx", "A 25186-2019")</f>
         <v/>
       </c>
     </row>
@@ -13427,7 +13427,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25483,7 +25483,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25540,7 +25540,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25597,7 +25597,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25711,7 +25711,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28353,7 +28353,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30445,7 +30445,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30559,7 +30559,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30616,7 +30616,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31357,7 +31357,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31585,7 +31585,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32098,7 +32098,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32155,7 +32155,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32217,7 +32217,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32274,7 +32274,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35449,7 +35449,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35563,7 +35563,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35677,7 +35677,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35905,7 +35905,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38366,7 +38366,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38423,7 +38423,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38480,7 +38480,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38651,7 +38651,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38708,7 +38708,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38822,7 +38822,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39288,7 +39288,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40096,7 +40096,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40158,7 +40158,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40215,7 +40215,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40582,7 +40582,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41177,7 +41177,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41296,7 +41296,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41358,7 +41358,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41482,7 +41482,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41596,7 +41596,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41653,7 +41653,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41710,7 +41710,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41767,7 +41767,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41824,7 +41824,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41886,7 +41886,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41943,7 +41943,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>43719</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>44340</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43558</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43605</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43691</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13122,7 +13122,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13727,7 +13727,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20729,7 +20729,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20843,7 +20843,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20957,7 +20957,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21014,7 +21014,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21128,7 +21128,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21356,7 +21356,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21480,7 +21480,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21594,7 +21594,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21651,7 +21651,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22050,7 +22050,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22164,7 +22164,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22278,7 +22278,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22335,7 +22335,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22449,7 +22449,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23795,7 +23795,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23914,7 +23914,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24028,7 +24028,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24142,7 +24142,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24375,7 +24375,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24489,7 +24489,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24603,7 +24603,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24717,7 +24717,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24831,7 +24831,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25483,7 +25483,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25540,7 +25540,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25597,7 +25597,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25711,7 +25711,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28063,7 +28063,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28120,7 +28120,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28177,7 +28177,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28296,7 +28296,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28353,7 +28353,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29233,7 +29233,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29290,7 +29290,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29347,7 +29347,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29922,7 +29922,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29979,7 +29979,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30217,7 +30217,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30388,7 +30388,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30445,7 +30445,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30502,7 +30502,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30559,7 +30559,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30616,7 +30616,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30673,7 +30673,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30730,7 +30730,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31015,7 +31015,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31072,7 +31072,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31129,7 +31129,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31243,7 +31243,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31357,7 +31357,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31585,7 +31585,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32098,7 +32098,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32155,7 +32155,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32217,7 +32217,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32274,7 +32274,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32673,7 +32673,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34004,7 +34004,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34118,7 +34118,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34232,7 +34232,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34403,7 +34403,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34812,7 +34812,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34869,7 +34869,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35449,7 +35449,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35563,7 +35563,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35677,7 +35677,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35905,7 +35905,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36366,7 +36366,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38081,7 +38081,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38138,7 +38138,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38195,7 +38195,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38252,7 +38252,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38309,7 +38309,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38366,7 +38366,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38423,7 +38423,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38480,7 +38480,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38537,7 +38537,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38594,7 +38594,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38651,7 +38651,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38708,7 +38708,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38822,7 +38822,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39288,7 +39288,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40096,7 +40096,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40158,7 +40158,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40215,7 +40215,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40582,7 +40582,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41177,7 +41177,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41296,7 +41296,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41358,7 +41358,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41420,7 +41420,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41482,7 +41482,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41539,7 +41539,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41596,7 +41596,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41653,7 +41653,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41710,7 +41710,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41767,7 +41767,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41824,7 +41824,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41886,7 +41886,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41943,7 +41943,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44379</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>43691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43539</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,14 +1181,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 46891-2019</t>
+          <t>A 18289-2019</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>43719</v>
+        <v>43558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1200,13 +1200,8 @@
           <t>ÖREBRO</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1239,6 +1234,102 @@
         <v>7</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp
+Blå taggsvamp
+Flattoppad klubbsvamp
+Orange taggsvamp
+Svart taggsvamp
+Fjällig taggsvamp s.str.
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 18289-2019.xlsx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 18289-2019.png", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 46891-2019</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>43719</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Kådvaxskinn
@@ -1249,92 +1340,92 @@
 Toppvaxskivling</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 46891-2019.xlsx", "A 46891-2019")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 46891-2019.png", "A 46891-2019")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 46891-2019.docx", "A 46891-2019")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 46891-2019.docx", "A 46891-2019")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 46891-2019.docx", "A 46891-2019")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 46891-2019.docx", "A 46891-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 24762-2021</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44340</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>6.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>7</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Gul taggsvamp
 Kärrvaxskinn
@@ -1345,121 +1436,31 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 24762-2021.xlsx", "A 24762-2021")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 24762-2021.png", "A 24762-2021")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 24762-2021.docx", "A 24762-2021")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 24762-2021.docx", "A 24762-2021")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 24762-2021.docx", "A 24762-2021")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 24762-2021.docx", "A 24762-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 18289-2019</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>43558</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Brandtaggsvamp
-Flattoppad klubbsvamp
-Orange taggsvamp
-Svart taggsvamp
-Fjällig taggsvamp s.str.
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 18289-2019.xlsx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 18289-2019.png", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1470,7 +1471,7 @@
         <v>43605</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,7 +1561,7 @@
         <v>43691</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1655,7 +1656,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1750,7 +1751,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1840,7 +1841,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1935,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2028,7 +2029,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2121,7 +2122,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2214,7 +2215,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2302,7 +2303,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2394,7 +2395,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2486,7 +2487,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2573,7 +2574,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2660,7 +2661,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2752,7 +2753,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2839,7 +2840,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2926,7 +2927,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3013,7 +3014,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3099,7 +3100,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3185,7 +3186,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3271,7 +3272,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3362,7 +3363,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3448,7 +3449,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3534,7 +3535,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3625,7 +3626,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3710,7 +3711,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3800,7 +3801,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3885,7 +3886,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3975,7 +3976,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4060,7 +4061,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4145,7 +4146,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4235,7 +4236,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4320,7 +4321,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4410,7 +4411,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4495,7 +4496,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4584,7 +4585,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4674,7 +4675,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4759,7 +4760,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4849,7 +4850,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4934,7 +4935,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5019,7 +5020,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5104,7 +5105,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5189,7 +5190,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5274,7 +5275,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5364,7 +5365,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5453,7 +5454,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5543,7 +5544,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5628,7 +5629,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5713,7 +5714,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5803,7 +5804,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5888,7 +5889,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5973,7 +5974,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6058,7 +6059,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6143,7 +6144,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6228,7 +6229,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6313,7 +6314,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6398,7 +6399,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6460,7 +6461,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6517,7 +6518,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6574,7 +6575,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6631,7 +6632,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6693,7 +6694,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6755,7 +6756,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6812,7 +6813,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6869,7 +6870,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6926,7 +6927,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6983,7 +6984,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7040,7 +7041,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7097,7 +7098,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7154,7 +7155,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7211,7 +7212,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7268,7 +7269,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7325,7 +7326,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7382,7 +7383,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7439,7 +7440,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7496,7 +7497,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7553,7 +7554,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7610,7 +7611,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7667,7 +7668,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7724,7 +7725,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7781,7 +7782,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7838,7 +7839,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7895,7 +7896,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7952,7 +7953,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8009,7 +8010,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8066,7 +8067,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8123,7 +8124,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8180,7 +8181,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8237,7 +8238,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8294,7 +8295,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8351,7 +8352,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8408,7 +8409,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8465,7 +8466,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8522,7 +8523,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8579,7 +8580,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8636,7 +8637,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8693,7 +8694,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8750,7 +8751,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8807,7 +8808,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8864,7 +8865,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8921,7 +8922,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8978,7 +8979,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9035,7 +9036,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9092,7 +9093,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9149,7 +9150,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9211,7 +9212,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9273,7 +9274,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9330,7 +9331,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9387,7 +9388,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9444,7 +9445,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9506,7 +9507,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9568,7 +9569,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9625,7 +9626,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9682,7 +9683,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9739,7 +9740,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9796,7 +9797,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9853,7 +9854,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9910,7 +9911,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9967,7 +9968,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10024,7 +10025,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10081,7 +10082,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10143,7 +10144,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10205,7 +10206,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10267,7 +10268,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10329,7 +10330,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10386,7 +10387,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10443,7 +10444,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10500,7 +10501,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10557,7 +10558,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10614,7 +10615,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10671,7 +10672,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10728,7 +10729,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10785,7 +10786,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10842,7 +10843,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10899,7 +10900,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10956,7 +10957,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11013,7 +11014,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11070,7 +11071,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11127,7 +11128,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11184,7 +11185,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11241,7 +11242,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11298,7 +11299,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11355,7 +11356,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11412,7 +11413,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11469,7 +11470,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11526,7 +11527,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11583,7 +11584,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11640,7 +11641,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11697,7 +11698,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11754,7 +11755,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11811,7 +11812,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11868,7 +11869,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11925,7 +11926,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11982,7 +11983,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12039,7 +12040,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12096,7 +12097,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12153,7 +12154,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12210,7 +12211,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12267,7 +12268,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12324,7 +12325,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12381,7 +12382,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12438,7 +12439,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12495,7 +12496,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12552,7 +12553,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12609,7 +12610,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12666,7 +12667,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12723,7 +12724,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12780,7 +12781,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12837,7 +12838,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12894,7 +12895,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12951,7 +12952,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13008,7 +13009,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13065,7 +13066,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13122,7 +13123,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13179,7 +13180,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13236,7 +13237,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13293,7 +13294,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13350,7 +13351,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13427,7 +13428,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13484,7 +13485,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13546,7 +13547,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13608,7 +13609,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13670,7 +13671,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13727,7 +13728,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13789,7 +13790,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13846,7 +13847,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13903,7 +13904,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13965,7 +13966,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14022,7 +14023,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14079,7 +14080,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14136,7 +14137,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14193,7 +14194,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14250,7 +14251,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14307,7 +14308,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14364,7 +14365,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14421,7 +14422,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14478,7 +14479,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14535,7 +14536,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14592,7 +14593,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14649,7 +14650,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14706,7 +14707,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14763,7 +14764,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14820,7 +14821,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14877,7 +14878,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14934,7 +14935,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14991,7 +14992,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15048,7 +15049,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15105,7 +15106,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15162,7 +15163,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15219,7 +15220,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15281,7 +15282,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15343,7 +15344,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15400,7 +15401,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15457,7 +15458,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15519,7 +15520,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15581,7 +15582,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15638,7 +15639,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15700,7 +15701,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15757,7 +15758,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15814,7 +15815,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15871,7 +15872,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15928,7 +15929,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15990,7 +15991,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16052,7 +16053,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16109,7 +16110,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16166,7 +16167,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16223,7 +16224,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16280,7 +16281,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16342,7 +16343,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16399,7 +16400,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16456,7 +16457,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16513,7 +16514,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16570,7 +16571,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16627,7 +16628,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16684,7 +16685,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16741,7 +16742,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16798,7 +16799,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16855,7 +16856,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16917,7 +16918,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16974,7 +16975,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17036,7 +17037,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17093,7 +17094,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17150,7 +17151,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17207,7 +17208,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17264,7 +17265,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17321,7 +17322,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17378,7 +17379,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17440,7 +17441,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17502,7 +17503,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17559,7 +17560,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17616,7 +17617,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17673,7 +17674,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17730,7 +17731,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17787,7 +17788,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17844,7 +17845,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17901,7 +17902,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17958,7 +17959,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18015,7 +18016,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18072,7 +18073,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18129,7 +18130,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18186,7 +18187,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18243,7 +18244,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18300,7 +18301,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18357,7 +18358,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18414,7 +18415,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18471,7 +18472,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18528,7 +18529,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18585,7 +18586,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18642,7 +18643,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18699,7 +18700,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18756,7 +18757,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18813,7 +18814,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18870,7 +18871,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18932,7 +18933,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18989,7 +18990,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19046,7 +19047,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19103,7 +19104,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19160,7 +19161,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19217,7 +19218,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19274,7 +19275,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19331,7 +19332,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19388,7 +19389,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19445,7 +19446,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19502,7 +19503,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19559,7 +19560,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19616,7 +19617,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19673,7 +19674,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19735,7 +19736,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19792,7 +19793,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19849,7 +19850,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19911,7 +19912,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19973,7 +19974,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20030,7 +20031,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20087,7 +20088,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20144,7 +20145,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20206,7 +20207,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20263,7 +20264,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20320,7 +20321,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20377,7 +20378,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20439,7 +20440,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20496,7 +20497,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20553,7 +20554,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20610,7 +20611,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20667,7 +20668,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20729,7 +20730,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20786,7 +20787,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20843,7 +20844,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20900,7 +20901,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20957,7 +20958,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21014,7 +21015,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21071,7 +21072,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21128,7 +21129,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21185,7 +21186,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21242,7 +21243,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21299,7 +21300,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21356,7 +21357,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21418,7 +21419,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21480,7 +21481,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21537,7 +21538,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21594,7 +21595,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21651,7 +21652,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21708,7 +21709,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21765,7 +21766,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21822,7 +21823,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21879,7 +21880,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21936,7 +21937,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21993,7 +21994,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22050,7 +22051,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22107,7 +22108,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22164,7 +22165,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22221,7 +22222,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22278,7 +22279,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22335,7 +22336,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22392,7 +22393,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22449,7 +22450,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22506,7 +22507,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22563,7 +22564,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22625,7 +22626,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22687,7 +22688,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22749,7 +22750,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22811,7 +22812,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22868,7 +22869,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22925,7 +22926,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22982,7 +22983,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23039,7 +23040,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23096,7 +23097,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23158,7 +23159,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23220,7 +23221,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23277,7 +23278,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23334,7 +23335,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23391,7 +23392,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23448,7 +23449,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23505,7 +23506,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23562,7 +23563,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23619,7 +23620,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23676,7 +23677,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23738,7 +23739,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23795,7 +23796,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23857,7 +23858,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23914,7 +23915,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23971,7 +23972,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24028,7 +24029,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24085,7 +24086,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24142,7 +24143,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24199,7 +24200,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24261,7 +24262,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24318,7 +24319,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24375,7 +24376,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24432,7 +24433,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24489,7 +24490,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24546,7 +24547,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24603,7 +24604,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24660,7 +24661,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24717,7 +24718,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24774,7 +24775,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24831,7 +24832,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24893,7 +24894,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24950,7 +24951,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25007,7 +25008,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25069,7 +25070,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25126,7 +25127,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25183,7 +25184,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25240,7 +25241,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25302,7 +25303,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25364,7 +25365,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25426,7 +25427,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25483,7 +25484,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25540,7 +25541,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25597,7 +25598,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25654,7 +25655,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25711,7 +25712,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25768,7 +25769,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25825,7 +25826,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25882,7 +25883,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25939,7 +25940,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25996,7 +25997,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26053,7 +26054,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26110,7 +26111,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26167,7 +26168,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26224,7 +26225,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26281,7 +26282,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26338,7 +26339,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26395,7 +26396,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26452,7 +26453,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26509,7 +26510,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26566,7 +26567,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26623,7 +26624,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26680,7 +26681,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26737,7 +26738,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26794,7 +26795,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26851,7 +26852,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26908,7 +26909,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26965,7 +26966,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27022,7 +27023,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27079,7 +27080,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27136,7 +27137,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27198,7 +27199,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27255,7 +27256,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27312,7 +27313,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27369,7 +27370,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27426,7 +27427,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27483,7 +27484,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27540,7 +27541,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27597,7 +27598,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27654,7 +27655,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27711,7 +27712,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27773,7 +27774,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27830,7 +27831,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27887,7 +27888,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27944,7 +27945,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28006,7 +28007,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28063,7 +28064,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28120,7 +28121,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28177,7 +28178,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28234,7 +28235,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28296,7 +28297,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28353,7 +28354,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28415,7 +28416,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28477,7 +28478,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28539,7 +28540,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28596,7 +28597,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28653,7 +28654,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28715,7 +28716,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28772,7 +28773,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28829,7 +28830,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28886,7 +28887,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28943,7 +28944,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29000,7 +29001,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29057,7 +29058,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29114,7 +29115,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29176,7 +29177,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29233,7 +29234,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29290,7 +29291,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29347,7 +29348,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29404,7 +29405,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29461,7 +29462,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29518,7 +29519,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29580,7 +29581,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29637,7 +29638,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29694,7 +29695,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29751,7 +29752,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29808,7 +29809,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29865,7 +29866,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29922,7 +29923,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29979,7 +29980,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30041,7 +30042,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30098,7 +30099,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30160,7 +30161,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30217,7 +30218,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30274,7 +30275,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30331,7 +30332,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30388,7 +30389,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30445,7 +30446,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30502,7 +30503,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30559,7 +30560,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30616,7 +30617,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30673,7 +30674,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30730,7 +30731,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30787,7 +30788,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30844,7 +30845,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30901,7 +30902,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30958,7 +30959,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31015,7 +31016,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31072,7 +31073,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31129,7 +31130,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31186,7 +31187,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31243,7 +31244,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31300,7 +31301,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31357,7 +31358,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31414,7 +31415,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31471,7 +31472,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31528,7 +31529,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31585,7 +31586,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31642,7 +31643,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31699,7 +31700,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31756,7 +31757,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31813,7 +31814,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31870,7 +31871,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31927,7 +31928,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31984,7 +31985,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32041,7 +32042,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32098,7 +32099,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32155,7 +32156,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32217,7 +32218,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32274,7 +32275,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32331,7 +32332,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32388,7 +32389,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32445,7 +32446,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32502,7 +32503,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32559,7 +32560,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32616,7 +32617,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32673,7 +32674,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32735,7 +32736,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32792,7 +32793,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32849,7 +32850,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32906,7 +32907,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32968,7 +32969,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33025,7 +33026,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33082,7 +33083,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33139,7 +33140,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33196,7 +33197,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33253,7 +33254,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33310,7 +33311,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33367,7 +33368,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33424,7 +33425,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33481,7 +33482,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33538,7 +33539,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33595,7 +33596,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33652,7 +33653,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33709,7 +33710,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33766,7 +33767,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33823,7 +33824,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33885,7 +33886,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33942,7 +33943,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34004,7 +34005,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34061,7 +34062,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34118,7 +34119,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34175,7 +34176,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34232,7 +34233,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34289,7 +34290,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34346,7 +34347,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34403,7 +34404,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34465,7 +34466,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34522,7 +34523,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34579,7 +34580,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34636,7 +34637,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34693,7 +34694,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34750,7 +34751,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34812,7 +34813,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34869,7 +34870,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34926,7 +34927,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34988,7 +34989,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35045,7 +35046,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35102,7 +35103,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35159,7 +35160,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35221,7 +35222,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35278,7 +35279,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35335,7 +35336,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35392,7 +35393,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35449,7 +35450,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35506,7 +35507,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35563,7 +35564,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35620,7 +35621,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35677,7 +35678,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35734,7 +35735,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35791,7 +35792,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35848,7 +35849,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35905,7 +35906,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35962,7 +35963,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36019,7 +36020,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36076,7 +36077,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36133,7 +36134,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36190,7 +36191,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36247,7 +36248,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36304,7 +36305,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36366,7 +36367,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36423,7 +36424,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36480,7 +36481,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36537,7 +36538,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36594,7 +36595,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36651,7 +36652,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36708,7 +36709,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36765,7 +36766,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36822,7 +36823,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36879,7 +36880,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36936,7 +36937,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36993,7 +36994,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37050,7 +37051,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37107,7 +37108,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37164,7 +37165,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37221,7 +37222,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37278,7 +37279,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37335,7 +37336,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37392,7 +37393,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37449,7 +37450,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37506,7 +37507,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37568,7 +37569,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37625,7 +37626,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37682,7 +37683,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37739,7 +37740,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37796,7 +37797,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37853,7 +37854,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37910,7 +37911,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37967,7 +37968,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38024,7 +38025,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38081,7 +38082,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38138,7 +38139,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38195,7 +38196,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38252,7 +38253,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38309,7 +38310,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38366,7 +38367,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38423,7 +38424,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38480,7 +38481,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38537,7 +38538,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38594,7 +38595,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38651,7 +38652,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38708,7 +38709,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38765,7 +38766,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38822,7 +38823,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38879,7 +38880,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38936,7 +38937,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38993,7 +38994,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39050,7 +39051,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39107,7 +39108,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39164,7 +39165,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39226,7 +39227,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39288,7 +39289,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39350,7 +39351,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39407,7 +39408,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39464,7 +39465,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39521,7 +39522,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39578,7 +39579,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39635,7 +39636,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39692,7 +39693,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39749,7 +39750,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39806,7 +39807,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39863,7 +39864,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39920,7 +39921,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39977,7 +39978,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40034,7 +40035,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40096,7 +40097,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40158,7 +40159,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40215,7 +40216,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40277,7 +40278,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40339,7 +40340,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40401,7 +40402,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40463,7 +40464,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40525,7 +40526,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40582,7 +40583,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40639,7 +40640,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40701,7 +40702,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40758,7 +40759,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40815,7 +40816,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40872,7 +40873,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40934,7 +40935,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40996,7 +40997,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41058,7 +41059,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41115,7 +41116,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41177,7 +41178,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41234,7 +41235,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41296,7 +41297,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41358,7 +41359,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41420,7 +41421,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41482,7 +41483,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41539,7 +41540,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41596,7 +41597,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41653,7 +41654,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41710,7 +41711,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41767,7 +41768,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41824,7 +41825,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41886,7 +41887,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41943,7 +41944,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44522</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>44365</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,14 +891,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 34205-2021</t>
+          <t>A 18289-2019</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44379</v>
+        <v>43558</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -911,39 +911,132 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>9</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp
+Blå taggsvamp
+Flattoppad klubbsvamp
+Orange taggsvamp
+Svart taggsvamp
+Fjällig taggsvamp s.str.
+Guldkremla
+Kryddspindling
+Svavelriska</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 18289-2019.xlsx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 18289-2019.png", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 34205-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44379</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Ask
 Tornseglare
@@ -956,92 +1049,92 @@
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 34205-2021.xlsx", "A 34205-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 34205-2021.png", "A 34205-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 34205-2021.docx", "A 34205-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 34205-2021.docx", "A 34205-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 34205-2021.docx", "A 34205-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 34205-2021.docx", "A 34205-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 40725-2019</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>43691</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="C7" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>19.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>7</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>8</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
@@ -1053,96 +1146,96 @@
 Grön sköldmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 40725-2019.xlsx", "A 40725-2019")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 40725-2019.png", "A 40725-2019")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/knärot/A 40725-2019.png", "A 40725-2019")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 40725-2019.docx", "A 40725-2019")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 40725-2019.docx", "A 40725-2019")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 40725-2019.docx", "A 40725-2019")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 40725-2019.docx", "A 40725-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 15438-2019</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>43539</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>2.4</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>7</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Läderdoftande fingersvamp
 Ullticka
@@ -1153,122 +1246,31 @@
 Svavelriska</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 15438-2019.xlsx", "A 15438-2019")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 15438-2019.png", "A 15438-2019")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 15438-2019.docx", "A 15438-2019")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 15438-2019.docx", "A 15438-2019")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 15438-2019.docx", "A 15438-2019")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 15438-2019.docx", "A 15438-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 18289-2019</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>43558</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Brandtaggsvamp
-Blå taggsvamp
-Flattoppad klubbsvamp
-Orange taggsvamp
-Svart taggsvamp
-Fjällig taggsvamp s.str.
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 18289-2019.xlsx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 18289-2019.png", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1279,7 +1281,7 @@
         <v>43719</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1375,7 +1377,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1473,7 @@
         <v>43605</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1561,7 +1563,7 @@
         <v>43691</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1656,7 +1658,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1751,7 +1753,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1841,7 +1843,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1935,7 +1937,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2029,7 +2031,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2122,7 +2124,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2215,7 +2217,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2303,7 +2305,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2395,7 +2397,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2487,7 +2489,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2574,7 +2576,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2661,7 +2663,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2755,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2840,7 +2842,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2927,7 +2929,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3014,7 +3016,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3102,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3186,7 +3188,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3274,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3365,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3449,7 +3451,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3537,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3626,7 +3628,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3711,7 +3713,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3801,7 +3803,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3886,7 +3888,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3976,7 +3978,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4061,7 +4063,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4146,7 +4148,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4236,7 +4238,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4321,7 +4323,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4411,7 +4413,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4496,7 +4498,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4585,7 +4587,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4675,7 +4677,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4760,7 +4762,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4850,7 +4852,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4935,7 +4937,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5020,7 +5022,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5105,7 +5107,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5190,7 +5192,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5275,7 +5277,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5365,7 +5367,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5454,7 +5456,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5544,7 +5546,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5629,7 +5631,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5714,7 +5716,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5804,7 +5806,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5889,7 +5891,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5974,7 +5976,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6059,7 +6061,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6144,7 +6146,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6229,7 +6231,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6314,7 +6316,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6399,7 +6401,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6461,7 +6463,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6518,7 +6520,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6575,7 +6577,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6632,7 +6634,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6694,7 +6696,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6756,7 +6758,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6813,7 +6815,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6870,7 +6872,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6927,7 +6929,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6984,7 +6986,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7041,7 +7043,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7098,7 +7100,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7155,7 +7157,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7212,7 +7214,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7269,7 +7271,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7326,7 +7328,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7383,7 +7385,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7440,7 +7442,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7497,7 +7499,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7554,7 +7556,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7611,7 +7613,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7668,7 +7670,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7725,7 +7727,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7782,7 +7784,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7839,7 +7841,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7896,7 +7898,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7953,7 +7955,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8010,7 +8012,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8067,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8124,7 +8126,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8181,7 +8183,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8238,7 +8240,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8295,7 +8297,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8352,7 +8354,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8409,7 +8411,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8466,7 +8468,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8523,7 +8525,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8580,7 +8582,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8637,7 +8639,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8694,7 +8696,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8751,7 +8753,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8808,7 +8810,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8865,7 +8867,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8922,7 +8924,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8979,7 +8981,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9036,7 +9038,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9093,7 +9095,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9150,7 +9152,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9212,7 +9214,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9274,7 +9276,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9331,7 +9333,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9388,7 +9390,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9445,7 +9447,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9507,7 +9509,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9569,7 +9571,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9626,7 +9628,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9683,7 +9685,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9740,7 +9742,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9797,7 +9799,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9854,7 +9856,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9911,7 +9913,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9968,7 +9970,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10025,7 +10027,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10082,7 +10084,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10144,7 +10146,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10206,7 +10208,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10268,7 +10270,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10330,7 +10332,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10387,7 +10389,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10444,7 +10446,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10501,7 +10503,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10558,7 +10560,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10615,7 +10617,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10672,7 +10674,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10729,7 +10731,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10786,7 +10788,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10843,7 +10845,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10900,7 +10902,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10957,7 +10959,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11014,7 +11016,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11071,7 +11073,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11128,7 +11130,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11185,7 +11187,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11242,7 +11244,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11299,7 +11301,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11356,7 +11358,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11413,7 +11415,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11470,7 +11472,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11527,7 +11529,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11584,7 +11586,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11641,7 +11643,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11698,7 +11700,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11755,7 +11757,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11812,7 +11814,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11869,7 +11871,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11926,7 +11928,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11983,7 +11985,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12040,7 +12042,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12097,7 +12099,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12154,7 +12156,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12211,7 +12213,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12268,7 +12270,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12325,7 +12327,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12382,7 +12384,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12439,7 +12441,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12496,7 +12498,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12553,7 +12555,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12610,7 +12612,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12667,7 +12669,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12724,7 +12726,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12781,7 +12783,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12838,7 +12840,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12895,7 +12897,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12952,7 +12954,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13009,7 +13011,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13066,7 +13068,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13123,7 +13125,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13180,7 +13182,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13237,7 +13239,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13294,7 +13296,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13351,7 +13353,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13428,7 +13430,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13485,7 +13487,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13547,7 +13549,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13609,7 +13611,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13671,7 +13673,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13728,7 +13730,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13790,7 +13792,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13847,7 +13849,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13904,7 +13906,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13966,7 +13968,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14023,7 +14025,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14080,7 +14082,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14137,7 +14139,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14194,7 +14196,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14251,7 +14253,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14308,7 +14310,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14365,7 +14367,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14422,7 +14424,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14479,7 +14481,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14536,7 +14538,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14593,7 +14595,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14650,7 +14652,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14707,7 +14709,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14764,7 +14766,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14821,7 +14823,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14878,7 +14880,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14935,7 +14937,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14992,7 +14994,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15049,7 +15051,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15106,7 +15108,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15163,7 +15165,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15220,7 +15222,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15282,7 +15284,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15344,7 +15346,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15401,7 +15403,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15458,7 +15460,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15520,7 +15522,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15582,7 +15584,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15639,7 +15641,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15701,7 +15703,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15758,7 +15760,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15815,7 +15817,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15872,7 +15874,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15929,7 +15931,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15991,7 +15993,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16053,7 +16055,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16110,7 +16112,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16167,7 +16169,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16224,7 +16226,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16281,7 +16283,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16343,7 +16345,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16400,7 +16402,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16457,7 +16459,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16514,7 +16516,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16571,7 +16573,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16628,7 +16630,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16685,7 +16687,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16742,7 +16744,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16799,7 +16801,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16856,7 +16858,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16918,7 +16920,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16975,7 +16977,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17037,7 +17039,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17094,7 +17096,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17151,7 +17153,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17208,7 +17210,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17265,7 +17267,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17322,7 +17324,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17379,7 +17381,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17441,7 +17443,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17503,7 +17505,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17560,7 +17562,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17617,7 +17619,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17674,7 +17676,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17731,7 +17733,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17788,7 +17790,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17845,7 +17847,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17902,7 +17904,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17959,7 +17961,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18016,7 +18018,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18073,7 +18075,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18130,7 +18132,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18187,7 +18189,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18244,7 +18246,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18301,7 +18303,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18358,7 +18360,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18415,7 +18417,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18472,7 +18474,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18529,7 +18531,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18586,7 +18588,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18643,7 +18645,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18700,7 +18702,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18757,7 +18759,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18814,7 +18816,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18871,7 +18873,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18933,7 +18935,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18990,7 +18992,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19047,7 +19049,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19104,7 +19106,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19161,7 +19163,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19218,7 +19220,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19275,7 +19277,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19332,7 +19334,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19389,7 +19391,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19446,7 +19448,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19503,7 +19505,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19560,7 +19562,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19617,7 +19619,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19674,7 +19676,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19736,7 +19738,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19793,7 +19795,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19850,7 +19852,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19912,7 +19914,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19974,7 +19976,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20031,7 +20033,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20088,7 +20090,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20145,7 +20147,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20207,7 +20209,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20264,7 +20266,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20321,7 +20323,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20378,7 +20380,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20440,7 +20442,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20497,7 +20499,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20554,7 +20556,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20611,7 +20613,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20668,7 +20670,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20730,7 +20732,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20787,7 +20789,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20844,7 +20846,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20901,7 +20903,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20958,7 +20960,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21015,7 +21017,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21072,7 +21074,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21129,7 +21131,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21186,7 +21188,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21243,7 +21245,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21300,7 +21302,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21357,7 +21359,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21419,7 +21421,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21481,7 +21483,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21538,7 +21540,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21595,7 +21597,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21652,7 +21654,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21709,7 +21711,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21766,7 +21768,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21823,7 +21825,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21880,7 +21882,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21937,7 +21939,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21994,7 +21996,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22051,7 +22053,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22108,7 +22110,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22165,7 +22167,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22222,7 +22224,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22279,7 +22281,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22336,7 +22338,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22393,7 +22395,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22452,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22507,7 +22509,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22564,7 +22566,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22626,7 +22628,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22688,7 +22690,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22750,7 +22752,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22812,7 +22814,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22869,7 +22871,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22926,7 +22928,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22983,7 +22985,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23040,7 +23042,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23097,7 +23099,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23159,7 +23161,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23221,7 +23223,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23278,7 +23280,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23335,7 +23337,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23392,7 +23394,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23449,7 +23451,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23506,7 +23508,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23563,7 +23565,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23620,7 +23622,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23677,7 +23679,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23741,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23798,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23858,7 +23860,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23915,7 +23917,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23974,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24031,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24088,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24143,7 +24145,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24200,7 +24202,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24264,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24321,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24376,7 +24378,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24433,7 +24435,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24490,7 +24492,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24547,7 +24549,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24604,7 +24606,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24661,7 +24663,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24718,7 +24720,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24775,7 +24777,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24832,7 +24834,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24894,7 +24896,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24951,7 +24953,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25008,7 +25010,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25072,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25129,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25186,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25243,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25303,7 +25305,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25365,7 +25367,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25427,7 +25429,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25484,7 +25486,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25541,7 +25543,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25598,7 +25600,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25655,7 +25657,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25712,7 +25714,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25769,7 +25771,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25826,7 +25828,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25883,7 +25885,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25940,7 +25942,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25997,7 +25999,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26054,7 +26056,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26111,7 +26113,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26168,7 +26170,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26225,7 +26227,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26282,7 +26284,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26339,7 +26341,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26396,7 +26398,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26453,7 +26455,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26510,7 +26512,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26567,7 +26569,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26624,7 +26626,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26681,7 +26683,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26738,7 +26740,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26795,7 +26797,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26852,7 +26854,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26909,7 +26911,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26966,7 +26968,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27023,7 +27025,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27080,7 +27082,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27137,7 +27139,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27199,7 +27201,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27256,7 +27258,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27313,7 +27315,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27370,7 +27372,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27427,7 +27429,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27484,7 +27486,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27543,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27600,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27657,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27714,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27774,7 +27776,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27831,7 +27833,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27888,7 +27890,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27947,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28007,7 +28009,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28066,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28121,7 +28123,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28178,7 +28180,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28235,7 +28237,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28297,7 +28299,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28354,7 +28356,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28418,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28478,7 +28480,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28540,7 +28542,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28597,7 +28599,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28654,7 +28656,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28716,7 +28718,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28773,7 +28775,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28830,7 +28832,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28887,7 +28889,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28944,7 +28946,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29001,7 +29003,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29058,7 +29060,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29115,7 +29117,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29177,7 +29179,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29234,7 +29236,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29291,7 +29293,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29348,7 +29350,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29405,7 +29407,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29462,7 +29464,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29519,7 +29521,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29581,7 +29583,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29638,7 +29640,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29695,7 +29697,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29752,7 +29754,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29809,7 +29811,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29866,7 +29868,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29923,7 +29925,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29980,7 +29982,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30042,7 +30044,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30099,7 +30101,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30161,7 +30163,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30218,7 +30220,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30275,7 +30277,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30332,7 +30334,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30389,7 +30391,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30446,7 +30448,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30503,7 +30505,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30560,7 +30562,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30617,7 +30619,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30674,7 +30676,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30731,7 +30733,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30788,7 +30790,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30845,7 +30847,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30902,7 +30904,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30959,7 +30961,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31016,7 +31018,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31073,7 +31075,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31130,7 +31132,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31187,7 +31189,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31244,7 +31246,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31301,7 +31303,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31358,7 +31360,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31415,7 +31417,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31472,7 +31474,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31529,7 +31531,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31586,7 +31588,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31643,7 +31645,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31700,7 +31702,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31757,7 +31759,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31814,7 +31816,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31871,7 +31873,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31928,7 +31930,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31985,7 +31987,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32042,7 +32044,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32099,7 +32101,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32156,7 +32158,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32218,7 +32220,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32275,7 +32277,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32332,7 +32334,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32389,7 +32391,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32446,7 +32448,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32503,7 +32505,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32560,7 +32562,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32617,7 +32619,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32674,7 +32676,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32736,7 +32738,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32793,7 +32795,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32850,7 +32852,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32907,7 +32909,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32969,7 +32971,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33026,7 +33028,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33083,7 +33085,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33140,7 +33142,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33197,7 +33199,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33254,7 +33256,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33311,7 +33313,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33368,7 +33370,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33425,7 +33427,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33482,7 +33484,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33539,7 +33541,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33596,7 +33598,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33653,7 +33655,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33710,7 +33712,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33767,7 +33769,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33824,7 +33826,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33886,7 +33888,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33943,7 +33945,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34005,7 +34007,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34062,7 +34064,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34119,7 +34121,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34176,7 +34178,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34233,7 +34235,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34290,7 +34292,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34347,7 +34349,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34404,7 +34406,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34466,7 +34468,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34523,7 +34525,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34580,7 +34582,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34637,7 +34639,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34694,7 +34696,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34751,7 +34753,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34813,7 +34815,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34870,7 +34872,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34927,7 +34929,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34989,7 +34991,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35046,7 +35048,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35103,7 +35105,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35160,7 +35162,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35222,7 +35224,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35279,7 +35281,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35336,7 +35338,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35393,7 +35395,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35450,7 +35452,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35507,7 +35509,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35564,7 +35566,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35621,7 +35623,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35678,7 +35680,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35735,7 +35737,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35792,7 +35794,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35849,7 +35851,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35906,7 +35908,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35963,7 +35965,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36020,7 +36022,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36077,7 +36079,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36134,7 +36136,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36191,7 +36193,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36248,7 +36250,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36305,7 +36307,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36367,7 +36369,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36424,7 +36426,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36481,7 +36483,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36538,7 +36540,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36595,7 +36597,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36652,7 +36654,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36709,7 +36711,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36766,7 +36768,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36823,7 +36825,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36880,7 +36882,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36937,7 +36939,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36994,7 +36996,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37051,7 +37053,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37108,7 +37110,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37165,7 +37167,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37222,7 +37224,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37279,7 +37281,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37336,7 +37338,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37393,7 +37395,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37450,7 +37452,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37507,7 +37509,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37569,7 +37571,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37626,7 +37628,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37683,7 +37685,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37740,7 +37742,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37797,7 +37799,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37854,7 +37856,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37911,7 +37913,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37968,7 +37970,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38025,7 +38027,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38082,7 +38084,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38139,7 +38141,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38196,7 +38198,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38253,7 +38255,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38310,7 +38312,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38367,7 +38369,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38424,7 +38426,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38481,7 +38483,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38538,7 +38540,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38595,7 +38597,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38652,7 +38654,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38709,7 +38711,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38766,7 +38768,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38823,7 +38825,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38880,7 +38882,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38937,7 +38939,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38994,7 +38996,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39051,7 +39053,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39108,7 +39110,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39165,7 +39167,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39227,7 +39229,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39289,7 +39291,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39351,7 +39353,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39408,7 +39410,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39465,7 +39467,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39522,7 +39524,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39579,7 +39581,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39636,7 +39638,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39693,7 +39695,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39750,7 +39752,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39807,7 +39809,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39864,7 +39866,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39921,7 +39923,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39978,7 +39980,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40035,7 +40037,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40097,7 +40099,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40159,7 +40161,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40216,7 +40218,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40278,7 +40280,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40340,7 +40342,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40402,7 +40404,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40464,7 +40466,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40526,7 +40528,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40583,7 +40585,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40640,7 +40642,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40702,7 +40704,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40759,7 +40761,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40816,7 +40818,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40873,7 +40875,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40935,7 +40937,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40997,7 +40999,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41059,7 +41061,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41116,7 +41118,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41178,7 +41180,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41235,7 +41237,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41297,7 +41299,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41359,7 +41361,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41421,7 +41423,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41483,7 +41485,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41540,7 +41542,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41597,7 +41599,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41654,7 +41656,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41711,7 +41713,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41768,7 +41770,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41825,7 +41827,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41887,7 +41889,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41944,7 +41946,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y682"/>
+  <dimension ref="A1:Y683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,14 +690,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 66985-2021</t>
+          <t>A 18289-2019</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44522</v>
+        <v>43558</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -709,28 +709,23 @@
           <t>ÖREBRO</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>12.4</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -739,15 +734,120 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
       </c>
       <c r="Q3" t="n">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Brandtaggsvamp
+Läderdoftande fingersvamp
+Blå taggsvamp
+Flattoppad klubbsvamp
+Orange taggsvamp
+Persiljespindling
+Svart taggsvamp
+Svartvit taggsvamp
+Fjällig taggsvamp s.str.
+Fransig jordstjärna
+Guldkremla
+Kryddspindling
+Nästrot
+Skarp dropptaggsvamp
+Svavelriska
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 18289-2019.xlsx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 18289-2019.png", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 18289-2019.docx", "A 18289-2019")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 66985-2021</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44522</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
         <v>13</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Ask
 Ekspik
@@ -764,92 +864,92 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 66985-2021.xlsx", "A 66985-2021")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 66985-2021.png", "A 66985-2021")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 66985-2021.docx", "A 66985-2021")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 66985-2021.docx", "A 66985-2021")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 66985-2021.docx", "A 66985-2021")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 66985-2021.docx", "A 66985-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 30728-2021</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>44365</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÖREBRO</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>1.7</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>10</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Vågticka
 Flattoppad klubbsvamp
@@ -863,124 +963,31 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 30728-2021.xlsx", "A 30728-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 30728-2021.png", "A 30728-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 30728-2021.docx", "A 30728-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 30728-2021.docx", "A 30728-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 30728-2021.docx", "A 30728-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 30728-2021.docx", "A 30728-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 18289-2019</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>43558</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ÖREBRO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Brandtaggsvamp
-Blå taggsvamp
-Flattoppad klubbsvamp
-Orange taggsvamp
-Svart taggsvamp
-Fjällig taggsvamp s.str.
-Guldkremla
-Kryddspindling
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/artfynd/A 18289-2019.xlsx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/kartor/A 18289-2019.png", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomål/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/klagomålsmail/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsyn/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OREBRO/tillsynsmail/A 18289-2019.docx", "A 18289-2019")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -991,7 +998,7 @@
         <v>44379</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1091,7 @@
         <v>43691</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1185,7 +1192,7 @@
         <v>43539</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1288,7 @@
         <v>43719</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1384,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1473,7 +1480,7 @@
         <v>43605</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1563,7 +1570,7 @@
         <v>43691</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1658,7 +1665,7 @@
         <v>43795</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1753,7 +1760,7 @@
         <v>44272</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1850,7 @@
         <v>43360</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1937,7 +1944,7 @@
         <v>44700</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2038,7 @@
         <v>45021</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2124,7 +2131,7 @@
         <v>43643</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2217,7 +2224,7 @@
         <v>44281</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2312,7 @@
         <v>43654</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2397,7 +2404,7 @@
         <v>43936</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2489,7 +2496,7 @@
         <v>44319</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2576,7 +2583,7 @@
         <v>44727</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2663,7 +2670,7 @@
         <v>44753</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2755,7 +2762,7 @@
         <v>44783</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2842,7 +2849,7 @@
         <v>44951</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2929,7 +2936,7 @@
         <v>45012</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3016,7 +3023,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3102,7 +3109,7 @@
         <v>43518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3188,7 +3195,7 @@
         <v>43572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3274,7 +3281,7 @@
         <v>43719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3365,7 +3372,7 @@
         <v>44214</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3458,7 @@
         <v>44244</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3537,7 +3544,7 @@
         <v>44753</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3628,7 +3635,7 @@
         <v>43356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3713,7 +3720,7 @@
         <v>43452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3803,7 +3810,7 @@
         <v>43541</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3888,7 +3895,7 @@
         <v>43644</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3978,7 +3985,7 @@
         <v>43826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4063,7 +4070,7 @@
         <v>43843</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4148,7 +4155,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4238,7 +4245,7 @@
         <v>43905</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4323,7 +4330,7 @@
         <v>43980</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4413,7 +4420,7 @@
         <v>43986</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4498,7 +4505,7 @@
         <v>43997</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4587,7 +4594,7 @@
         <v>43998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4677,7 +4684,7 @@
         <v>44004</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4762,7 +4769,7 @@
         <v>44146</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4852,7 +4859,7 @@
         <v>44218</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4937,7 +4944,7 @@
         <v>44237</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5022,7 +5029,7 @@
         <v>44244</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5107,7 +5114,7 @@
         <v>44245</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5192,7 +5199,7 @@
         <v>44285</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5277,7 +5284,7 @@
         <v>44375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5367,7 +5374,7 @@
         <v>44435</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5456,7 +5463,7 @@
         <v>44482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5546,7 +5553,7 @@
         <v>44593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5631,7 +5638,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5716,7 +5723,7 @@
         <v>44755</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5806,7 +5813,7 @@
         <v>44839</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5891,7 +5898,7 @@
         <v>44958</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5976,7 +5983,7 @@
         <v>45054</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6061,7 +6068,7 @@
         <v>45055</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6146,7 +6153,7 @@
         <v>45072</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6231,7 +6238,7 @@
         <v>45077</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6316,7 +6323,7 @@
         <v>45119</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6401,7 +6408,7 @@
         <v>43321</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6463,7 +6470,7 @@
         <v>43325</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6520,7 +6527,7 @@
         <v>43327</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6577,7 +6584,7 @@
         <v>43327</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6634,7 +6641,7 @@
         <v>43329</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6696,7 +6703,7 @@
         <v>43336</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6758,7 +6765,7 @@
         <v>43336</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6815,7 +6822,7 @@
         <v>43353</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6872,7 +6879,7 @@
         <v>43357</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6929,7 +6936,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6986,7 +6993,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7043,7 +7050,7 @@
         <v>43368</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7100,7 +7107,7 @@
         <v>43371</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7157,7 +7164,7 @@
         <v>43375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7214,7 +7221,7 @@
         <v>43376</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7271,7 +7278,7 @@
         <v>43381</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7328,7 +7335,7 @@
         <v>43389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7385,7 +7392,7 @@
         <v>43391</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7442,7 +7449,7 @@
         <v>43398</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7499,7 +7506,7 @@
         <v>43398</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7556,7 +7563,7 @@
         <v>43399</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7613,7 +7620,7 @@
         <v>43402</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7670,7 +7677,7 @@
         <v>43409</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7727,7 +7734,7 @@
         <v>43412</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7784,7 +7791,7 @@
         <v>43417</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7841,7 +7848,7 @@
         <v>43418</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7898,7 +7905,7 @@
         <v>43420</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7955,7 +7962,7 @@
         <v>43420</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8012,7 +8019,7 @@
         <v>43420</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8069,7 +8076,7 @@
         <v>43430</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8126,7 +8133,7 @@
         <v>43430</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8183,7 +8190,7 @@
         <v>43430</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8240,7 +8247,7 @@
         <v>43430</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8297,7 +8304,7 @@
         <v>43433</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8354,7 +8361,7 @@
         <v>43436</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8411,7 +8418,7 @@
         <v>43437</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8468,7 +8475,7 @@
         <v>43438</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8525,7 +8532,7 @@
         <v>43438</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8582,7 +8589,7 @@
         <v>43440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8639,7 +8646,7 @@
         <v>43441</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8696,7 +8703,7 @@
         <v>43444</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8753,7 +8760,7 @@
         <v>43446</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8810,7 +8817,7 @@
         <v>43446</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8867,7 +8874,7 @@
         <v>43446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8924,7 +8931,7 @@
         <v>43446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8981,7 +8988,7 @@
         <v>43447</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9038,7 +9045,7 @@
         <v>43447</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9095,7 +9102,7 @@
         <v>43447</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9152,7 +9159,7 @@
         <v>43447</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9214,7 +9221,7 @@
         <v>43447</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9276,7 +9283,7 @@
         <v>43447</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9333,7 +9340,7 @@
         <v>43451</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9390,7 +9397,7 @@
         <v>43451</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9447,7 +9454,7 @@
         <v>43452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9509,7 +9516,7 @@
         <v>43454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9571,7 +9578,7 @@
         <v>43454</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9628,7 +9635,7 @@
         <v>43455</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9685,7 +9692,7 @@
         <v>43473</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9742,7 +9749,7 @@
         <v>43476</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9799,7 +9806,7 @@
         <v>43480</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9856,7 +9863,7 @@
         <v>43481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9913,7 +9920,7 @@
         <v>43481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9970,7 +9977,7 @@
         <v>43482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10027,7 +10034,7 @@
         <v>43482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10084,7 +10091,7 @@
         <v>43486</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10146,7 +10153,7 @@
         <v>43486</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10208,7 +10215,7 @@
         <v>43486</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10270,7 +10277,7 @@
         <v>43486</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10332,7 +10339,7 @@
         <v>43489</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10389,7 +10396,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10446,7 +10453,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10503,7 +10510,7 @@
         <v>43495</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10560,7 +10567,7 @@
         <v>43495</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10617,7 +10624,7 @@
         <v>43495</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10674,7 +10681,7 @@
         <v>43495</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10731,7 +10738,7 @@
         <v>43495</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10788,7 +10795,7 @@
         <v>43501</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10845,7 +10852,7 @@
         <v>43508</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10902,7 +10909,7 @@
         <v>43514</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10959,7 +10966,7 @@
         <v>43514</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11016,7 +11023,7 @@
         <v>43516</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11073,7 +11080,7 @@
         <v>43518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11130,7 +11137,7 @@
         <v>43518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11187,7 +11194,7 @@
         <v>43518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11244,7 +11251,7 @@
         <v>43518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11301,7 +11308,7 @@
         <v>43518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11358,7 +11365,7 @@
         <v>43521</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11415,7 +11422,7 @@
         <v>43522</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11472,7 +11479,7 @@
         <v>43528</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11529,7 +11536,7 @@
         <v>43530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11586,7 +11593,7 @@
         <v>43531</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11643,7 +11650,7 @@
         <v>43535</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11700,7 +11707,7 @@
         <v>43538</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11757,7 +11764,7 @@
         <v>43541</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11814,7 +11821,7 @@
         <v>43543</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11871,7 +11878,7 @@
         <v>43544</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11928,7 +11935,7 @@
         <v>43551</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11985,7 +11992,7 @@
         <v>43552</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12042,7 +12049,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12099,7 +12106,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12156,7 +12163,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12213,7 +12220,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12270,7 +12277,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12327,7 +12334,7 @@
         <v>43552</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12384,7 +12391,7 @@
         <v>43552</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12441,7 +12448,7 @@
         <v>43557</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12498,7 +12505,7 @@
         <v>43563</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12555,7 +12562,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12612,7 +12619,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12669,7 +12676,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12726,7 +12733,7 @@
         <v>43563</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12783,7 +12790,7 @@
         <v>43563</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12840,7 +12847,7 @@
         <v>43563</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12897,7 +12904,7 @@
         <v>43571</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12954,7 +12961,7 @@
         <v>43572</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13011,7 +13018,7 @@
         <v>43581</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13068,7 +13075,7 @@
         <v>43584</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13125,7 +13132,7 @@
         <v>43584</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13182,7 +13189,7 @@
         <v>43585</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13239,7 +13246,7 @@
         <v>43594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13296,7 +13303,7 @@
         <v>43598</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13353,7 +13360,7 @@
         <v>43605</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13430,7 +13437,7 @@
         <v>43612</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13487,7 +13494,7 @@
         <v>43619</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13549,7 +13556,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13611,7 +13618,7 @@
         <v>43642</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13673,7 +13680,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13730,7 +13737,7 @@
         <v>43647</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13792,7 +13799,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13849,7 +13856,7 @@
         <v>43650</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13906,7 +13913,7 @@
         <v>43654</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13968,7 +13975,7 @@
         <v>43655</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14025,7 +14032,7 @@
         <v>43655</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14082,7 +14089,7 @@
         <v>43658</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14139,7 +14146,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14196,7 +14203,7 @@
         <v>43665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14253,7 +14260,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14310,7 +14317,7 @@
         <v>43669</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14367,7 +14374,7 @@
         <v>43669</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14424,7 +14431,7 @@
         <v>43669</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14481,7 +14488,7 @@
         <v>43676</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14538,7 +14545,7 @@
         <v>43677</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14595,7 +14602,7 @@
         <v>43677</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14652,7 +14659,7 @@
         <v>43683</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14709,7 +14716,7 @@
         <v>43683</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14766,7 +14773,7 @@
         <v>43685</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14823,7 +14830,7 @@
         <v>43686</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14880,7 +14887,7 @@
         <v>43689</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14937,7 +14944,7 @@
         <v>43689</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14994,7 +15001,7 @@
         <v>43690</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15051,7 +15058,7 @@
         <v>43691</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15108,7 +15115,7 @@
         <v>43691</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15165,7 +15172,7 @@
         <v>43691</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15222,7 +15229,7 @@
         <v>43691</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15284,7 +15291,7 @@
         <v>43696</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15346,7 +15353,7 @@
         <v>43698</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15403,7 +15410,7 @@
         <v>43704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15460,7 +15467,7 @@
         <v>43704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15522,7 +15529,7 @@
         <v>43704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15584,7 +15591,7 @@
         <v>43704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15641,7 +15648,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15703,7 +15710,7 @@
         <v>43705</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15760,7 +15767,7 @@
         <v>43710</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15817,7 +15824,7 @@
         <v>43710</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15874,7 +15881,7 @@
         <v>43710</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15931,7 +15938,7 @@
         <v>43710</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15993,7 +16000,7 @@
         <v>43710</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16055,7 +16062,7 @@
         <v>43710</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16112,7 +16119,7 @@
         <v>43713</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16169,7 +16176,7 @@
         <v>43714</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16226,7 +16233,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16283,7 +16290,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16345,7 +16352,7 @@
         <v>43729</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16402,7 +16409,7 @@
         <v>43733</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16459,7 +16466,7 @@
         <v>43734</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16516,7 +16523,7 @@
         <v>43734</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16573,7 +16580,7 @@
         <v>43734</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16630,7 +16637,7 @@
         <v>43735</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16687,7 +16694,7 @@
         <v>43735</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16744,7 +16751,7 @@
         <v>43739</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16801,7 +16808,7 @@
         <v>43741</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16858,7 +16865,7 @@
         <v>43745</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16920,7 +16927,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16977,7 +16984,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17039,7 +17046,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17096,7 +17103,7 @@
         <v>43766</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17153,7 +17160,7 @@
         <v>43768</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17210,7 +17217,7 @@
         <v>43774</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17267,7 +17274,7 @@
         <v>43775</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17324,7 +17331,7 @@
         <v>43782</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17381,7 +17388,7 @@
         <v>43783</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17443,7 +17450,7 @@
         <v>43783</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17505,7 +17512,7 @@
         <v>43784</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17562,7 +17569,7 @@
         <v>43786</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17619,7 +17626,7 @@
         <v>43787</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17676,7 +17683,7 @@
         <v>43790</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17733,7 +17740,7 @@
         <v>43790</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17790,7 +17797,7 @@
         <v>43794</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17847,7 +17854,7 @@
         <v>43796</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17904,7 +17911,7 @@
         <v>43797</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17961,7 +17968,7 @@
         <v>43801</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18018,7 +18025,7 @@
         <v>43801</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18075,7 +18082,7 @@
         <v>43801</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18132,7 +18139,7 @@
         <v>43801</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18189,7 +18196,7 @@
         <v>43803</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18246,7 +18253,7 @@
         <v>43804</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18303,7 +18310,7 @@
         <v>43809</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18360,7 +18367,7 @@
         <v>43809</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18417,7 +18424,7 @@
         <v>43810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18474,7 +18481,7 @@
         <v>43814</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18531,7 +18538,7 @@
         <v>43814</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18588,7 +18595,7 @@
         <v>43814</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18652,7 @@
         <v>43818</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18702,7 +18709,7 @@
         <v>43818</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18759,7 +18766,7 @@
         <v>43836</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18816,7 +18823,7 @@
         <v>43838</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18873,7 +18880,7 @@
         <v>43840</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18935,7 +18942,7 @@
         <v>43843</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18992,7 +18999,7 @@
         <v>43843</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19049,7 +19056,7 @@
         <v>43844</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19106,7 +19113,7 @@
         <v>43844</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19163,7 +19170,7 @@
         <v>43844</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19220,7 +19227,7 @@
         <v>43844</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19277,7 +19284,7 @@
         <v>43844</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19334,7 +19341,7 @@
         <v>43844</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19391,7 +19398,7 @@
         <v>43844</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19448,7 +19455,7 @@
         <v>43844</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19505,7 +19512,7 @@
         <v>43844</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19562,7 +19569,7 @@
         <v>43851</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19619,7 +19626,7 @@
         <v>43853</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19676,7 +19683,7 @@
         <v>43853</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19738,7 +19745,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19795,7 +19802,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19852,7 +19859,7 @@
         <v>43857</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19914,7 +19921,7 @@
         <v>43858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19976,7 +19983,7 @@
         <v>43859</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20033,7 +20040,7 @@
         <v>43864</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20090,7 +20097,7 @@
         <v>43864</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20147,7 +20154,7 @@
         <v>43866</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20209,7 +20216,7 @@
         <v>43867</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20266,7 +20273,7 @@
         <v>43868</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20323,7 +20330,7 @@
         <v>43868</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20380,7 +20387,7 @@
         <v>43872</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20442,7 +20449,7 @@
         <v>43877</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20499,7 +20506,7 @@
         <v>43878</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20556,7 +20563,7 @@
         <v>43878</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20613,7 +20620,7 @@
         <v>43881</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20670,7 +20677,7 @@
         <v>43881</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20732,7 +20739,7 @@
         <v>43881</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20789,7 +20796,7 @@
         <v>43881</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20846,7 +20853,7 @@
         <v>43894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20903,7 +20910,7 @@
         <v>43894</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20960,7 +20967,7 @@
         <v>43895</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21017,7 +21024,7 @@
         <v>43897</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21074,7 +21081,7 @@
         <v>43901</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21131,7 +21138,7 @@
         <v>43902</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21195,7 @@
         <v>43905</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21252,7 @@
         <v>43907</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21302,7 +21309,7 @@
         <v>43916</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21359,7 +21366,7 @@
         <v>43917</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21421,7 +21428,7 @@
         <v>43920</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21483,7 +21490,7 @@
         <v>43927</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21540,7 +21547,7 @@
         <v>43928</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21597,7 +21604,7 @@
         <v>43938</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21654,7 +21661,7 @@
         <v>43938</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21711,7 +21718,7 @@
         <v>43951</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21768,7 +21775,7 @@
         <v>43961</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21825,7 +21832,7 @@
         <v>43983</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21882,7 +21889,7 @@
         <v>43983</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21939,7 +21946,7 @@
         <v>43987</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21996,7 +22003,7 @@
         <v>43990</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22053,7 +22060,7 @@
         <v>43994</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22110,7 +22117,7 @@
         <v>43994</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22167,7 +22174,7 @@
         <v>43997</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22224,7 +22231,7 @@
         <v>43997</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22281,7 +22288,7 @@
         <v>43997</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22338,7 +22345,7 @@
         <v>43997</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22395,7 +22402,7 @@
         <v>43998</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22452,7 +22459,7 @@
         <v>43998</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22509,7 +22516,7 @@
         <v>44004</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22566,7 +22573,7 @@
         <v>44012</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22628,7 +22635,7 @@
         <v>44012</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22690,7 +22697,7 @@
         <v>44012</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22752,7 +22759,7 @@
         <v>44014</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22814,7 +22821,7 @@
         <v>44020</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22871,7 +22878,7 @@
         <v>44020</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22928,7 +22935,7 @@
         <v>44020</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22985,7 +22992,7 @@
         <v>44020</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23042,7 +23049,7 @@
         <v>44043</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23099,7 +23106,7 @@
         <v>44053</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23161,7 +23168,7 @@
         <v>44053</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23223,7 +23230,7 @@
         <v>44056</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23280,7 +23287,7 @@
         <v>44061</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23337,7 +23344,7 @@
         <v>44061</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23394,7 +23401,7 @@
         <v>44062</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23451,7 +23458,7 @@
         <v>44063</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23508,7 +23515,7 @@
         <v>44064</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23565,7 +23572,7 @@
         <v>44064</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23622,7 +23629,7 @@
         <v>44067</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23679,7 +23686,7 @@
         <v>44069</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23741,7 +23748,7 @@
         <v>44069</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23798,7 +23805,7 @@
         <v>44076</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23860,7 +23867,7 @@
         <v>44078</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23917,7 +23924,7 @@
         <v>44078</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23974,7 +23981,7 @@
         <v>44084</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24031,7 +24038,7 @@
         <v>44085</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24088,7 +24095,7 @@
         <v>44088</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24145,7 +24152,7 @@
         <v>44088</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24202,7 +24209,7 @@
         <v>44091</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24264,7 +24271,7 @@
         <v>44095</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24321,7 +24328,7 @@
         <v>44095</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24378,7 +24385,7 @@
         <v>44095</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24442,7 @@
         <v>44101</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24499,7 @@
         <v>44104</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24549,7 +24556,7 @@
         <v>44104</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24606,7 +24613,7 @@
         <v>44119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24663,7 +24670,7 @@
         <v>44124</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24720,7 +24727,7 @@
         <v>44125</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24777,7 +24784,7 @@
         <v>44131</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24834,7 +24841,7 @@
         <v>44133</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24896,7 +24903,7 @@
         <v>44139</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24953,7 +24960,7 @@
         <v>44145</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25010,7 +25017,7 @@
         <v>44151</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25072,7 +25079,7 @@
         <v>44152</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25129,7 +25136,7 @@
         <v>44155</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25186,7 +25193,7 @@
         <v>44161</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25243,7 +25250,7 @@
         <v>44162</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25305,7 +25312,7 @@
         <v>44162</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25367,7 +25374,7 @@
         <v>44162</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25429,7 +25436,7 @@
         <v>44166</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25486,7 +25493,7 @@
         <v>44173</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25543,7 +25550,7 @@
         <v>44179</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25600,7 +25607,7 @@
         <v>44182</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25657,7 +25664,7 @@
         <v>44188</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25714,7 +25721,7 @@
         <v>44195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25771,7 +25778,7 @@
         <v>44216</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25828,7 +25835,7 @@
         <v>44216</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25885,7 +25892,7 @@
         <v>44216</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25942,7 +25949,7 @@
         <v>44216</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25999,7 +26006,7 @@
         <v>44218</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26056,7 +26063,7 @@
         <v>44230</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26113,7 +26120,7 @@
         <v>44230</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26170,7 +26177,7 @@
         <v>44232</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26227,7 +26234,7 @@
         <v>44232</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26284,7 +26291,7 @@
         <v>44235</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26341,7 +26348,7 @@
         <v>44238</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26398,7 +26405,7 @@
         <v>44244</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26455,7 +26462,7 @@
         <v>44244</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26512,7 +26519,7 @@
         <v>44244</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26569,7 +26576,7 @@
         <v>44244</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26626,7 +26633,7 @@
         <v>44244</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26683,7 +26690,7 @@
         <v>44245</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26740,7 +26747,7 @@
         <v>44245</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26797,7 +26804,7 @@
         <v>44245</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26854,7 +26861,7 @@
         <v>44245</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26911,7 +26918,7 @@
         <v>44245</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26968,7 +26975,7 @@
         <v>44245</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27025,7 +27032,7 @@
         <v>44251</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27082,7 +27089,7 @@
         <v>44257</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27139,7 +27146,7 @@
         <v>44267</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27201,7 +27208,7 @@
         <v>44274</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27258,7 +27265,7 @@
         <v>44278</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27315,7 +27322,7 @@
         <v>44285</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27372,7 +27379,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27429,7 +27436,7 @@
         <v>44292</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27486,7 +27493,7 @@
         <v>44295</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27543,7 +27550,7 @@
         <v>44311</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27600,7 +27607,7 @@
         <v>44313</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27657,7 +27664,7 @@
         <v>44313</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27714,7 +27721,7 @@
         <v>44323</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27776,7 +27783,7 @@
         <v>44334</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27833,7 +27840,7 @@
         <v>44340</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27890,7 +27897,7 @@
         <v>44342</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27947,7 +27954,7 @@
         <v>44342</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28009,7 +28016,7 @@
         <v>44345</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28066,7 +28073,7 @@
         <v>44345</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28123,7 +28130,7 @@
         <v>44347</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28180,7 +28187,7 @@
         <v>44347</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28237,7 +28244,7 @@
         <v>44350</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28299,7 +28306,7 @@
         <v>44357</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28356,7 +28363,7 @@
         <v>44358</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28418,7 +28425,7 @@
         <v>44378</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28480,7 +28487,7 @@
         <v>44386</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28542,7 +28549,7 @@
         <v>44398</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28599,7 +28606,7 @@
         <v>44404</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28656,7 +28663,7 @@
         <v>44419</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28718,7 +28725,7 @@
         <v>44420</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28775,7 +28782,7 @@
         <v>44420</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28832,7 +28839,7 @@
         <v>44420</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28889,7 +28896,7 @@
         <v>44424</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28946,7 +28953,7 @@
         <v>44434</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29003,7 +29010,7 @@
         <v>44434</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29060,7 +29067,7 @@
         <v>44434</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29117,7 +29124,7 @@
         <v>44435</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29179,7 +29186,7 @@
         <v>44445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29236,7 +29243,7 @@
         <v>44449</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29293,7 +29300,7 @@
         <v>44453</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29350,7 +29357,7 @@
         <v>44464</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29407,7 +29414,7 @@
         <v>44475</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29464,7 +29471,7 @@
         <v>44482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29521,7 +29528,7 @@
         <v>44483</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29583,7 +29590,7 @@
         <v>44487</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29640,7 +29647,7 @@
         <v>44491</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29697,7 +29704,7 @@
         <v>44498</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29754,7 +29761,7 @@
         <v>44504</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29811,7 +29818,7 @@
         <v>44505</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29868,7 +29875,7 @@
         <v>44509</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29925,7 +29932,7 @@
         <v>44511</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29982,7 +29989,7 @@
         <v>44519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30044,7 +30051,7 @@
         <v>44522</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30101,7 +30108,7 @@
         <v>44532</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30163,7 +30170,7 @@
         <v>44536</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30220,7 +30227,7 @@
         <v>44537</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30277,7 +30284,7 @@
         <v>44537</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30334,7 +30341,7 @@
         <v>44537</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30391,7 +30398,7 @@
         <v>44538</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30448,7 +30455,7 @@
         <v>44539</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30505,7 +30512,7 @@
         <v>44539</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30562,7 +30569,7 @@
         <v>44539</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30619,7 +30626,7 @@
         <v>44539</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30676,7 +30683,7 @@
         <v>44539</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30733,7 +30740,7 @@
         <v>44539</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30790,7 +30797,7 @@
         <v>44545</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30847,7 +30854,7 @@
         <v>44552</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30904,7 +30911,7 @@
         <v>44566</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30961,7 +30968,7 @@
         <v>44572</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31018,7 +31025,7 @@
         <v>44573</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31075,7 +31082,7 @@
         <v>44580</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31132,7 +31139,7 @@
         <v>44582</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31189,7 +31196,7 @@
         <v>44585</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31246,7 +31253,7 @@
         <v>44592</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31303,7 +31310,7 @@
         <v>44592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31360,7 +31367,7 @@
         <v>44593</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31417,7 +31424,7 @@
         <v>44593</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31474,7 +31481,7 @@
         <v>44593</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31531,7 +31538,7 @@
         <v>44595</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31588,7 +31595,7 @@
         <v>44596</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31645,7 +31652,7 @@
         <v>44601</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31702,7 +31709,7 @@
         <v>44606</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31759,7 +31766,7 @@
         <v>44609</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31816,7 +31823,7 @@
         <v>44609</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31873,7 +31880,7 @@
         <v>44609</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31930,7 +31937,7 @@
         <v>44609</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31987,7 +31994,7 @@
         <v>44616</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32044,7 +32051,7 @@
         <v>44621</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32101,7 +32108,7 @@
         <v>44631</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32158,7 +32165,7 @@
         <v>44638</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32220,7 +32227,7 @@
         <v>44643</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32277,7 +32284,7 @@
         <v>44648</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32334,7 +32341,7 @@
         <v>44649</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32391,7 +32398,7 @@
         <v>44655</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32448,7 +32455,7 @@
         <v>44656</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32505,7 +32512,7 @@
         <v>44656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32562,7 +32569,7 @@
         <v>44659</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32619,7 +32626,7 @@
         <v>44664</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32676,7 +32683,7 @@
         <v>44665</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32738,7 +32745,7 @@
         <v>44670</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32795,7 +32802,7 @@
         <v>44670</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32852,7 +32859,7 @@
         <v>44670</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32909,7 +32916,7 @@
         <v>44671</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32971,7 +32978,7 @@
         <v>44673</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33028,7 +33035,7 @@
         <v>44673</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33085,7 +33092,7 @@
         <v>44673</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33142,7 +33149,7 @@
         <v>44676</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33199,7 +33206,7 @@
         <v>44676</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33256,7 +33263,7 @@
         <v>44683</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33313,7 +33320,7 @@
         <v>44684</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33370,7 +33377,7 @@
         <v>44685</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33427,7 +33434,7 @@
         <v>44686</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33484,7 +33491,7 @@
         <v>44687</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33541,7 +33548,7 @@
         <v>44691</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33598,7 +33605,7 @@
         <v>44693</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33655,7 +33662,7 @@
         <v>44695</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33712,7 +33719,7 @@
         <v>44696</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33769,7 +33776,7 @@
         <v>44704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33826,7 +33833,7 @@
         <v>44706</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33888,7 +33895,7 @@
         <v>44712</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33945,7 +33952,7 @@
         <v>44722</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34007,7 +34014,7 @@
         <v>44722</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34064,7 +34071,7 @@
         <v>44722</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34121,7 +34128,7 @@
         <v>44734</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34178,7 +34185,7 @@
         <v>44750</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34235,7 +34242,7 @@
         <v>44750</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34292,7 +34299,7 @@
         <v>44750</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34349,7 +34356,7 @@
         <v>44750</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34406,7 +34413,7 @@
         <v>44753</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34468,7 +34475,7 @@
         <v>44755</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34525,7 +34532,7 @@
         <v>44781</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34582,7 +34589,7 @@
         <v>44781</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34639,7 +34646,7 @@
         <v>44781</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34696,7 +34703,7 @@
         <v>44795</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34753,7 +34760,7 @@
         <v>44796</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34815,7 +34822,7 @@
         <v>44802</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34872,7 +34879,7 @@
         <v>44805</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34929,7 +34936,7 @@
         <v>44807</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34991,7 +34998,7 @@
         <v>44811</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35048,7 +35055,7 @@
         <v>44814</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35105,7 +35112,7 @@
         <v>44814</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35162,7 +35169,7 @@
         <v>44820</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35224,7 +35231,7 @@
         <v>44830</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35281,7 +35288,7 @@
         <v>44831</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35338,7 +35345,7 @@
         <v>44831</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35395,7 +35402,7 @@
         <v>44834</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35452,7 +35459,7 @@
         <v>44834</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35509,7 +35516,7 @@
         <v>44834</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35566,7 +35573,7 @@
         <v>44837</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35623,7 +35630,7 @@
         <v>44839</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35680,7 +35687,7 @@
         <v>44839</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35737,7 +35744,7 @@
         <v>44851</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35794,7 +35801,7 @@
         <v>44861</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35851,7 +35858,7 @@
         <v>44861</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35908,7 +35915,7 @@
         <v>44861</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35965,7 +35972,7 @@
         <v>44868</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36022,7 +36029,7 @@
         <v>44873</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36079,7 +36086,7 @@
         <v>44888</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36136,7 +36143,7 @@
         <v>44897</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36193,7 +36200,7 @@
         <v>44902</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36250,7 +36257,7 @@
         <v>44902</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36307,7 +36314,7 @@
         <v>44910</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36369,7 +36376,7 @@
         <v>44922</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36426,7 +36433,7 @@
         <v>44939</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36483,7 +36490,7 @@
         <v>44941</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36540,7 +36547,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36597,7 +36604,7 @@
         <v>44942</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36654,7 +36661,7 @@
         <v>44944</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36711,7 +36718,7 @@
         <v>44951</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36768,7 +36775,7 @@
         <v>44951</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36825,7 +36832,7 @@
         <v>44951</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36882,7 +36889,7 @@
         <v>44951</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36939,7 +36946,7 @@
         <v>44952</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36996,7 +37003,7 @@
         <v>44952</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37053,7 +37060,7 @@
         <v>44952</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37110,7 +37117,7 @@
         <v>44952</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37167,7 +37174,7 @@
         <v>44953</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37224,7 +37231,7 @@
         <v>44956</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37281,7 +37288,7 @@
         <v>44958</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37338,7 +37345,7 @@
         <v>44966</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37395,7 +37402,7 @@
         <v>44966</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37452,7 +37459,7 @@
         <v>44966</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37509,7 +37516,7 @@
         <v>44977</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37571,7 +37578,7 @@
         <v>44984</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37628,7 +37635,7 @@
         <v>44987</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37685,7 +37692,7 @@
         <v>44993</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37742,7 +37749,7 @@
         <v>44994</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37799,7 +37806,7 @@
         <v>45004</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37856,7 +37863,7 @@
         <v>45004</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37913,7 +37920,7 @@
         <v>45007</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37970,7 +37977,7 @@
         <v>45008</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38027,7 +38034,7 @@
         <v>45010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38084,7 +38091,7 @@
         <v>45010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38141,7 +38148,7 @@
         <v>45012</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38198,7 +38205,7 @@
         <v>45012</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38255,7 +38262,7 @@
         <v>45013</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38312,7 +38319,7 @@
         <v>45013</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38369,7 +38376,7 @@
         <v>45016</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38426,7 +38433,7 @@
         <v>45021</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38483,7 +38490,7 @@
         <v>45021</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38540,7 +38547,7 @@
         <v>45027</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38597,7 +38604,7 @@
         <v>45028</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38654,7 +38661,7 @@
         <v>45036</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38711,7 +38718,7 @@
         <v>45040</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38768,7 +38775,7 @@
         <v>45042</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38825,7 +38832,7 @@
         <v>45042</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38882,7 +38889,7 @@
         <v>45042</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38939,7 +38946,7 @@
         <v>45043</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38996,7 +39003,7 @@
         <v>45043</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39053,7 +39060,7 @@
         <v>45050</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39110,7 +39117,7 @@
         <v>45054</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39167,7 +39174,7 @@
         <v>45055</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39229,7 +39236,7 @@
         <v>45055</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39291,7 +39298,7 @@
         <v>45056</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39353,7 +39360,7 @@
         <v>45069</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39410,7 +39417,7 @@
         <v>45069</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39467,7 +39474,7 @@
         <v>45070</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39524,7 +39531,7 @@
         <v>45077</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39581,7 +39588,7 @@
         <v>45086</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39638,7 +39645,7 @@
         <v>45089</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39695,7 +39702,7 @@
         <v>45093</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39752,7 +39759,7 @@
         <v>45096</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39809,7 +39816,7 @@
         <v>45098</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39866,7 +39873,7 @@
         <v>45103</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39923,7 +39930,7 @@
         <v>45104</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39980,7 +39987,7 @@
         <v>45109</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40037,7 +40044,7 @@
         <v>45111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40099,7 +40106,7 @@
         <v>45111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40161,7 +40168,7 @@
         <v>45112</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40218,7 +40225,7 @@
         <v>45114</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40280,7 +40287,7 @@
         <v>45114</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40342,7 +40349,7 @@
         <v>45114</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40404,7 +40411,7 @@
         <v>45114</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40466,7 +40473,7 @@
         <v>45114</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40528,7 +40535,7 @@
         <v>45119</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40585,7 +40592,7 @@
         <v>45119</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40642,7 +40649,7 @@
         <v>45119</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40704,7 +40711,7 @@
         <v>45119</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40761,7 +40768,7 @@
         <v>45119</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40818,7 +40825,7 @@
         <v>45120</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40875,7 +40882,7 @@
         <v>45125</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40937,7 +40944,7 @@
         <v>45127</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40999,7 +41006,7 @@
         <v>45127</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41061,7 +41068,7 @@
         <v>45131</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41118,7 +41125,7 @@
         <v>45131</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41180,7 +41187,7 @@
         <v>45132</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41237,7 +41244,7 @@
         <v>45134</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41299,7 +41306,7 @@
         <v>45135</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41361,7 +41368,7 @@
         <v>45135</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41423,7 +41430,7 @@
         <v>45135</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41485,7 +41492,7 @@
         <v>45141</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41542,7 +41549,7 @@
         <v>45145</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41599,7 +41606,7 @@
         <v>45152</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41656,7 +41663,7 @@
         <v>45153</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41713,7 +41720,7 @@
         <v>45162</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41770,7 +41777,7 @@
         <v>45163</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41827,7 +41834,7 @@
         <v>45170</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41889,7 +41896,7 @@
         <v>45175</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41936,7 +41943,7 @@
       </c>
       <c r="R681" s="2" t="inlineStr"/>
     </row>
-    <row r="682">
+    <row r="682" ht="15" customHeight="1">
       <c r="A682" t="inlineStr">
         <is>
           <t>A 41455-2023</t>
@@ -41946,7 +41953,7 @@
         <v>45175</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41992,6 +41999,68 @@
         <v>0</v>
       </c>
       <c r="R682" s="2" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>A 44511-2023</t>
+        </is>
+      </c>
+      <c r="B683" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C683" s="1" t="n">
+       